--- a/input.xlsx
+++ b/input.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="156">
   <si>
     <t>Количество критериев:</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Размерность вершин I[i] (через запятую):</t>
   </si>
   <si>
-    <t>3,2</t>
+    <t>2,3,4</t>
   </si>
   <si>
     <t>Веса:</t>
@@ -41,97 +41,445 @@
     <t>1 1 2</t>
   </si>
   <si>
+    <t>1 1 3</t>
+  </si>
+  <si>
     <t>1 2 1</t>
   </si>
   <si>
     <t>1 2 2</t>
   </si>
   <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
     <t>1 3 1</t>
   </si>
   <si>
     <t>1 3 2</t>
   </si>
   <si>
+    <t>1 3 3</t>
+  </si>
+  <si>
     <t>1 4 1</t>
   </si>
   <si>
     <t>1 4 2</t>
   </si>
   <si>
+    <t>1 4 3</t>
+  </si>
+  <si>
+    <t>1 5 1</t>
+  </si>
+  <si>
+    <t>1 5 2</t>
+  </si>
+  <si>
+    <t>1 5 3</t>
+  </si>
+  <si>
+    <t>1 6 1</t>
+  </si>
+  <si>
+    <t>1 6 2</t>
+  </si>
+  <si>
+    <t>1 6 3</t>
+  </si>
+  <si>
+    <t>1 7 1</t>
+  </si>
+  <si>
+    <t>1 7 2</t>
+  </si>
+  <si>
+    <t>1 7 3</t>
+  </si>
+  <si>
     <t>2 1 1</t>
   </si>
   <si>
     <t>2 1 2</t>
   </si>
   <si>
+    <t>2 1 3</t>
+  </si>
+  <si>
     <t>2 2 1</t>
   </si>
   <si>
     <t>2 2 2</t>
   </si>
   <si>
+    <t>2 2 3</t>
+  </si>
+  <si>
     <t>2 3 1</t>
   </si>
   <si>
     <t>2 3 2</t>
   </si>
   <si>
+    <t>2 3 3</t>
+  </si>
+  <si>
     <t>2 4 1</t>
   </si>
   <si>
     <t>2 4 2</t>
   </si>
   <si>
+    <t>2 4 3</t>
+  </si>
+  <si>
+    <t>2 5 1</t>
+  </si>
+  <si>
+    <t>2 5 2</t>
+  </si>
+  <si>
+    <t>2 5 3</t>
+  </si>
+  <si>
+    <t>2 6 1</t>
+  </si>
+  <si>
+    <t>2 6 2</t>
+  </si>
+  <si>
+    <t>2 6 3</t>
+  </si>
+  <si>
+    <t>2 7 1</t>
+  </si>
+  <si>
+    <t>2 7 2</t>
+  </si>
+  <si>
+    <t>2 7 3</t>
+  </si>
+  <si>
     <t>3 1 1</t>
   </si>
   <si>
     <t>3 1 2</t>
   </si>
   <si>
+    <t>3 1 3</t>
+  </si>
+  <si>
     <t>3 2 1</t>
   </si>
   <si>
     <t>3 2 2</t>
   </si>
   <si>
+    <t>3 2 3</t>
+  </si>
+  <si>
     <t>3 3 1</t>
   </si>
   <si>
     <t>3 3 2</t>
   </si>
   <si>
+    <t>3 3 3</t>
+  </si>
+  <si>
     <t>3 4 1</t>
   </si>
   <si>
     <t>3 4 2</t>
   </si>
   <si>
+    <t>3 4 3</t>
+  </si>
+  <si>
+    <t>3 5 1</t>
+  </si>
+  <si>
+    <t>3 5 2</t>
+  </si>
+  <si>
+    <t>3 5 3</t>
+  </si>
+  <si>
+    <t>3 6 1</t>
+  </si>
+  <si>
+    <t>3 6 2</t>
+  </si>
+  <si>
+    <t>3 6 3</t>
+  </si>
+  <si>
+    <t>3 7 1</t>
+  </si>
+  <si>
+    <t>3 7 2</t>
+  </si>
+  <si>
+    <t>3 7 3</t>
+  </si>
+  <si>
     <t>4 1 1</t>
   </si>
   <si>
     <t>4 1 2</t>
   </si>
   <si>
+    <t>4 1 3</t>
+  </si>
+  <si>
     <t>4 2 1</t>
   </si>
   <si>
     <t>4 2 2</t>
   </si>
   <si>
+    <t>4 2 3</t>
+  </si>
+  <si>
     <t>4 3 1</t>
   </si>
   <si>
     <t>4 3 2</t>
   </si>
   <si>
+    <t>4 3 3</t>
+  </si>
+  <si>
     <t>4 4 1</t>
   </si>
   <si>
     <t>4 4 2</t>
   </si>
   <si>
+    <t>4 4 3</t>
+  </si>
+  <si>
+    <t>4 5 1</t>
+  </si>
+  <si>
+    <t>4 5 2</t>
+  </si>
+  <si>
+    <t>4 5 3</t>
+  </si>
+  <si>
+    <t>4 6 1</t>
+  </si>
+  <si>
+    <t>4 6 2</t>
+  </si>
+  <si>
+    <t>4 6 3</t>
+  </si>
+  <si>
+    <t>4 7 1</t>
+  </si>
+  <si>
+    <t>4 7 2</t>
+  </si>
+  <si>
+    <t>4 7 3</t>
+  </si>
+  <si>
+    <t>5 1 1</t>
+  </si>
+  <si>
+    <t>5 1 2</t>
+  </si>
+  <si>
+    <t>5 1 3</t>
+  </si>
+  <si>
+    <t>5 2 1</t>
+  </si>
+  <si>
+    <t>5 2 2</t>
+  </si>
+  <si>
+    <t>5 2 3</t>
+  </si>
+  <si>
+    <t>5 3 1</t>
+  </si>
+  <si>
+    <t>5 3 2</t>
+  </si>
+  <si>
+    <t>5 3 3</t>
+  </si>
+  <si>
+    <t>5 4 1</t>
+  </si>
+  <si>
+    <t>5 4 2</t>
+  </si>
+  <si>
+    <t>5 4 3</t>
+  </si>
+  <si>
+    <t>5 5 1</t>
+  </si>
+  <si>
+    <t>5 5 2</t>
+  </si>
+  <si>
+    <t>5 5 3</t>
+  </si>
+  <si>
+    <t>5 6 1</t>
+  </si>
+  <si>
+    <t>5 6 2</t>
+  </si>
+  <si>
+    <t>5 6 3</t>
+  </si>
+  <si>
+    <t>5 7 1</t>
+  </si>
+  <si>
+    <t>5 7 2</t>
+  </si>
+  <si>
+    <t>5 7 3</t>
+  </si>
+  <si>
+    <t>6 1 1</t>
+  </si>
+  <si>
+    <t>6 1 2</t>
+  </si>
+  <si>
+    <t>6 1 3</t>
+  </si>
+  <si>
+    <t>6 2 1</t>
+  </si>
+  <si>
+    <t>6 2 2</t>
+  </si>
+  <si>
+    <t>6 2 3</t>
+  </si>
+  <si>
+    <t>6 3 1</t>
+  </si>
+  <si>
+    <t>6 3 2</t>
+  </si>
+  <si>
+    <t>6 3 3</t>
+  </si>
+  <si>
+    <t>6 4 1</t>
+  </si>
+  <si>
+    <t>6 4 2</t>
+  </si>
+  <si>
+    <t>6 4 3</t>
+  </si>
+  <si>
+    <t>6 5 1</t>
+  </si>
+  <si>
+    <t>6 5 2</t>
+  </si>
+  <si>
+    <t>6 5 3</t>
+  </si>
+  <si>
+    <t>6 6 1</t>
+  </si>
+  <si>
+    <t>6 6 2</t>
+  </si>
+  <si>
+    <t>6 6 3</t>
+  </si>
+  <si>
+    <t>6 7 1</t>
+  </si>
+  <si>
+    <t>6 7 2</t>
+  </si>
+  <si>
+    <t>6 7 3</t>
+  </si>
+  <si>
+    <t>7 1 1</t>
+  </si>
+  <si>
+    <t>7 1 2</t>
+  </si>
+  <si>
+    <t>7 1 3</t>
+  </si>
+  <si>
+    <t>7 2 1</t>
+  </si>
+  <si>
+    <t>7 2 2</t>
+  </si>
+  <si>
+    <t>7 2 3</t>
+  </si>
+  <si>
+    <t>7 3 1</t>
+  </si>
+  <si>
+    <t>7 3 2</t>
+  </si>
+  <si>
+    <t>7 3 3</t>
+  </si>
+  <si>
+    <t>7 4 1</t>
+  </si>
+  <si>
+    <t>7 4 2</t>
+  </si>
+  <si>
+    <t>7 4 3</t>
+  </si>
+  <si>
+    <t>7 5 1</t>
+  </si>
+  <si>
+    <t>7 5 2</t>
+  </si>
+  <si>
+    <t>7 5 3</t>
+  </si>
+  <si>
+    <t>7 6 1</t>
+  </si>
+  <si>
+    <t>7 6 2</t>
+  </si>
+  <si>
+    <t>7 6 3</t>
+  </si>
+  <si>
+    <t>7 7 1</t>
+  </si>
+  <si>
+    <t>7 7 2</t>
+  </si>
+  <si>
+    <t>7 7 3</t>
+  </si>
+  <si>
     <t>Критерий №2</t>
+  </si>
+  <si>
+    <t>Критерий №3</t>
   </si>
 </sst>
 </file>
@@ -176,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:ER12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="2">
@@ -195,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -314,111 +662,801 @@
       <c r="AG5" t="s">
         <v>38</v>
       </c>
+      <c r="AH5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>111</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>115</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>116</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>118</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>119</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>121</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>123</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>124</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>132</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>138</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>146</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>147</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>151</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4072.0</v>
+        <v>5794.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1676.0</v>
+        <v>2903.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2903.0</v>
+        <v>932.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3769.0</v>
+        <v>3201.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1632.0</v>
+        <v>4391.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4180.0</v>
+        <v>7980.0</v>
       </c>
       <c r="H6" t="n">
-        <v>5055.0</v>
+        <v>4301.0</v>
       </c>
       <c r="I6" t="n">
-        <v>2319.0</v>
+        <v>449.0</v>
       </c>
       <c r="J6" t="n">
-        <v>6796.0</v>
+        <v>2882.0</v>
       </c>
       <c r="K6" t="n">
-        <v>1116.0</v>
+        <v>3523.0</v>
       </c>
       <c r="L6" t="n">
-        <v>9869.0</v>
+        <v>5595.0</v>
       </c>
       <c r="M6" t="n">
-        <v>3243.0</v>
+        <v>4734.0</v>
       </c>
       <c r="N6" t="n">
+        <v>7757.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6813.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9039.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7986.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9680.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3526.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9535.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9359.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8583.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8838.0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>7512.0</v>
       </c>
-      <c r="O6" t="n">
-        <v>7286.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1644.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8228.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2692.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4754.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1946.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9286.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>339.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1340.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>959.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9157.0</v>
-      </c>
       <c r="AC6" t="n">
-        <v>3291.0</v>
+        <v>1402.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>8539.0</v>
+        <v>3379.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>4328.0</v>
+        <v>581.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>6150.0</v>
+        <v>2088.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>4409.0</v>
+        <v>7556.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8364.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9582.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7991.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>632.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>8857.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4994.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5754.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2318.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>6980.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1124.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>7817.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8163.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>5632.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6027.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4757.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>6740.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>8368.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>6309.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>7817.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>7633.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>3696.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1504.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>6754.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>6953.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>572.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>7266.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>5980.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>8221.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>6815.0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>7203.0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>5042.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>7718.0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>7169.0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>4501.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>4972.0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>4574.0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>3155.0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1729.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>2839.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>7282.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>9992.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>2228.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>7130.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>5289.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>9873.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>5842.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>8427.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>4996.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>9055.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>9007.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>3230.0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1637.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>5726.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>7814.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>3184.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>4958.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>3377.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>7866.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>8870.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>2127.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>2801.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>2310.0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>7020.0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>2960.0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>9079.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>7304.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>3053.0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>5770.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>4029.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>3554.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>3801.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>1162.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>2740.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>5850.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>2026.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>7924.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>6837.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1515.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>1792.0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>8879.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>5515.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>924.0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>2236.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>6453.0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>5113.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>7436.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>3999.0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>2746.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>7385.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>4141.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>5405.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>9718.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>1238.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>5083.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>5788.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>5757.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>5420.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>5784.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>5905.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>4840.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>3638.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>818.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -515,6 +1553,351 @@
       </c>
       <c r="AG8" t="s">
         <v>38</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>96</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>111</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>115</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>118</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>119</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>121</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>123</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>124</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>126</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>128</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>132</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>135</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>138</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>146</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>147</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>151</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -522,100 +1905,1337 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9528.0</v>
+        <v>5216.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9567.0</v>
+        <v>5754.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6479.0</v>
+        <v>8367.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1956.0</v>
+        <v>7474.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3382.0</v>
+        <v>9081.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2332.0</v>
+        <v>9742.0</v>
       </c>
       <c r="H9" t="n">
+        <v>9384.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9232.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7137.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2638.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9683.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7783.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6615.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9926.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7703.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>592.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9460.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6877.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3297.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2504.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6733.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1645.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4757.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1208.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5289.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1188.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3272.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2586.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8317.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9197.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8800.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6827.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4268.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2471.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3890.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>849.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9502.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3745.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3388.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>3880.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>9449.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4250.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>5389.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8639.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3783.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2715.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>8257.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2711.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7643.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>9082.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>5672.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2861.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2033.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3259.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3656.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>8719.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>6020.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2395.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>3395.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>8344.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>8667.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>2978.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>5893.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>9667.0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>7337.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>2657.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>9865.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>3343.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>7568.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>9651.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>4161.0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>6788.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>2836.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>4730.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>7515.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>5661.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1532.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>2476.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>4602.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>4812.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>7457.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>946.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>2073.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>3662.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>7479.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>5988.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>4821.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>4296.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>5326.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>6790.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>1297.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>5967.0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>1741.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>4106.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>3540.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>6530.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>5315.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>2168.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>9640.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>7981.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>9342.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>7857.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>2087.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>2736.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>1406.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>8994.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>1166.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>2732.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>5462.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>1554.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>2710.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>8946.0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>4788.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>2063.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>3635.0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>7731.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>4480.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>1577.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>4546.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>9924.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>5041.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>4542.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>3911.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>9255.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>4544.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>7437.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>3812.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>4970.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>2176.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>3642.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>3564.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>96</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>115</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>116</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>118</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>119</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>121</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>123</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>124</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>126</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>128</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>132</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>135</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>138</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>147</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>151</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5069.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3893.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4269.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1192.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1379.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2956.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8929.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2969.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3996.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8773.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1045.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3869.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4035.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3460.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1675.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9374.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8947.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5384.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6647.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5427.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8034.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2557.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7150.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1455.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3908.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9184.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>4225.0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>6011.0</v>
       </c>
-      <c r="I9" t="n">
-        <v>3644.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6035.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6742.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1188.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6420.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8002.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2846.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6801.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3348.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>7863.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7209.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1958.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>389.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4139.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2847.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6239.0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2551.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>5123.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2631.0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2575.0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>755.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>901.0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>8514.0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>752.0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7839.0</v>
+      <c r="AG12" t="n">
+        <v>8964.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4016.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>4975.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>9796.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9304.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2793.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>7892.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2284.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4774.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2389.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4512.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>6159.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3679.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>6667.0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6067.0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7042.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3091.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>3215.0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3972.0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2984.0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>8008.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>8707.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>9307.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>7536.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>9870.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>8890.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>4684.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>8150.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>7023.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>9725.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2931.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>4821.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>7576.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>5344.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>4973.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>3304.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>8113.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>8504.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>6291.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>3683.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>3913.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>6084.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>4777.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>4075.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>9889.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>5480.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>2897.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>9719.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>6978.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>2189.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>9644.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>7344.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>8577.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>2469.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>5636.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>4128.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>3900.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>4399.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>1765.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>3207.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>6775.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>3692.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>4256.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>3344.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>3275.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>3897.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>2492.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>6167.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>3577.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>7973.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>9913.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>5186.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>4515.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>1633.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>1509.0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>5489.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>5457.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>2946.0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>2099.0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>2131.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>5682.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>1737.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>3003.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>9212.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>2266.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>4296.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>1228.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>5190.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>4821.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>8153.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>6343.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>8956.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>9563.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>8253.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>7494.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>9184.0</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="252">
   <si>
     <t>Количество критериев:</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Размерность вершин I[i] (через запятую):</t>
   </si>
   <si>
-    <t>2,3,3,2</t>
+    <t>4,3,4</t>
   </si>
   <si>
     <t>Веса:</t>
@@ -44,9 +44,6 @@
     <t>1 1 3</t>
   </si>
   <si>
-    <t>1 1 4</t>
-  </si>
-  <si>
     <t>1 2 1</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>1 2 3</t>
   </si>
   <si>
-    <t>1 2 4</t>
-  </si>
-  <si>
     <t>1 3 1</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>1 3 3</t>
   </si>
   <si>
-    <t>1 3 4</t>
-  </si>
-  <si>
     <t>1 4 1</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>1 4 3</t>
   </si>
   <si>
-    <t>1 4 4</t>
-  </si>
-  <si>
     <t>1 5 1</t>
   </si>
   <si>
@@ -92,9 +80,6 @@
     <t>1 5 3</t>
   </si>
   <si>
-    <t>1 5 4</t>
-  </si>
-  <si>
     <t>1 6 1</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
     <t>1 6 3</t>
   </si>
   <si>
-    <t>1 6 4</t>
-  </si>
-  <si>
     <t>1 7 1</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
     <t>1 7 3</t>
   </si>
   <si>
-    <t>1 7 4</t>
-  </si>
-  <si>
     <t>1 8 1</t>
   </si>
   <si>
@@ -128,7 +107,13 @@
     <t>1 8 3</t>
   </si>
   <si>
-    <t>1 8 4</t>
+    <t>1 9 1</t>
+  </si>
+  <si>
+    <t>1 9 2</t>
+  </si>
+  <si>
+    <t>1 9 3</t>
   </si>
   <si>
     <t>2 1 1</t>
@@ -140,9 +125,6 @@
     <t>2 1 3</t>
   </si>
   <si>
-    <t>2 1 4</t>
-  </si>
-  <si>
     <t>2 2 1</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
     <t>2 2 3</t>
   </si>
   <si>
-    <t>2 2 4</t>
-  </si>
-  <si>
     <t>2 3 1</t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>2 3 3</t>
   </si>
   <si>
-    <t>2 3 4</t>
-  </si>
-  <si>
     <t>2 4 1</t>
   </si>
   <si>
@@ -176,9 +152,6 @@
     <t>2 4 3</t>
   </si>
   <si>
-    <t>2 4 4</t>
-  </si>
-  <si>
     <t>2 5 1</t>
   </si>
   <si>
@@ -188,9 +161,6 @@
     <t>2 5 3</t>
   </si>
   <si>
-    <t>2 5 4</t>
-  </si>
-  <si>
     <t>2 6 1</t>
   </si>
   <si>
@@ -200,9 +170,6 @@
     <t>2 6 3</t>
   </si>
   <si>
-    <t>2 6 4</t>
-  </si>
-  <si>
     <t>2 7 1</t>
   </si>
   <si>
@@ -212,9 +179,6 @@
     <t>2 7 3</t>
   </si>
   <si>
-    <t>2 7 4</t>
-  </si>
-  <si>
     <t>2 8 1</t>
   </si>
   <si>
@@ -224,7 +188,13 @@
     <t>2 8 3</t>
   </si>
   <si>
-    <t>2 8 4</t>
+    <t>2 9 1</t>
+  </si>
+  <si>
+    <t>2 9 2</t>
+  </si>
+  <si>
+    <t>2 9 3</t>
   </si>
   <si>
     <t>3 1 1</t>
@@ -236,9 +206,6 @@
     <t>3 1 3</t>
   </si>
   <si>
-    <t>3 1 4</t>
-  </si>
-  <si>
     <t>3 2 1</t>
   </si>
   <si>
@@ -248,9 +215,6 @@
     <t>3 2 3</t>
   </si>
   <si>
-    <t>3 2 4</t>
-  </si>
-  <si>
     <t>3 3 1</t>
   </si>
   <si>
@@ -260,9 +224,6 @@
     <t>3 3 3</t>
   </si>
   <si>
-    <t>3 3 4</t>
-  </si>
-  <si>
     <t>3 4 1</t>
   </si>
   <si>
@@ -272,9 +233,6 @@
     <t>3 4 3</t>
   </si>
   <si>
-    <t>3 4 4</t>
-  </si>
-  <si>
     <t>3 5 1</t>
   </si>
   <si>
@@ -284,9 +242,6 @@
     <t>3 5 3</t>
   </si>
   <si>
-    <t>3 5 4</t>
-  </si>
-  <si>
     <t>3 6 1</t>
   </si>
   <si>
@@ -296,9 +251,6 @@
     <t>3 6 3</t>
   </si>
   <si>
-    <t>3 6 4</t>
-  </si>
-  <si>
     <t>3 7 1</t>
   </si>
   <si>
@@ -308,9 +260,6 @@
     <t>3 7 3</t>
   </si>
   <si>
-    <t>3 7 4</t>
-  </si>
-  <si>
     <t>3 8 1</t>
   </si>
   <si>
@@ -320,7 +269,13 @@
     <t>3 8 3</t>
   </si>
   <si>
-    <t>3 8 4</t>
+    <t>3 9 1</t>
+  </si>
+  <si>
+    <t>3 9 2</t>
+  </si>
+  <si>
+    <t>3 9 3</t>
   </si>
   <si>
     <t>4 1 1</t>
@@ -332,9 +287,6 @@
     <t>4 1 3</t>
   </si>
   <si>
-    <t>4 1 4</t>
-  </si>
-  <si>
     <t>4 2 1</t>
   </si>
   <si>
@@ -344,9 +296,6 @@
     <t>4 2 3</t>
   </si>
   <si>
-    <t>4 2 4</t>
-  </si>
-  <si>
     <t>4 3 1</t>
   </si>
   <si>
@@ -356,9 +305,6 @@
     <t>4 3 3</t>
   </si>
   <si>
-    <t>4 3 4</t>
-  </si>
-  <si>
     <t>4 4 1</t>
   </si>
   <si>
@@ -368,9 +314,6 @@
     <t>4 4 3</t>
   </si>
   <si>
-    <t>4 4 4</t>
-  </si>
-  <si>
     <t>4 5 1</t>
   </si>
   <si>
@@ -380,9 +323,6 @@
     <t>4 5 3</t>
   </si>
   <si>
-    <t>4 5 4</t>
-  </si>
-  <si>
     <t>4 6 1</t>
   </si>
   <si>
@@ -392,9 +332,6 @@
     <t>4 6 3</t>
   </si>
   <si>
-    <t>4 6 4</t>
-  </si>
-  <si>
     <t>4 7 1</t>
   </si>
   <si>
@@ -404,9 +341,6 @@
     <t>4 7 3</t>
   </si>
   <si>
-    <t>4 7 4</t>
-  </si>
-  <si>
     <t>4 8 1</t>
   </si>
   <si>
@@ -416,7 +350,13 @@
     <t>4 8 3</t>
   </si>
   <si>
-    <t>4 8 4</t>
+    <t>4 9 1</t>
+  </si>
+  <si>
+    <t>4 9 2</t>
+  </si>
+  <si>
+    <t>4 9 3</t>
   </si>
   <si>
     <t>5 1 1</t>
@@ -428,9 +368,6 @@
     <t>5 1 3</t>
   </si>
   <si>
-    <t>5 1 4</t>
-  </si>
-  <si>
     <t>5 2 1</t>
   </si>
   <si>
@@ -440,9 +377,6 @@
     <t>5 2 3</t>
   </si>
   <si>
-    <t>5 2 4</t>
-  </si>
-  <si>
     <t>5 3 1</t>
   </si>
   <si>
@@ -452,9 +386,6 @@
     <t>5 3 3</t>
   </si>
   <si>
-    <t>5 3 4</t>
-  </si>
-  <si>
     <t>5 4 1</t>
   </si>
   <si>
@@ -464,9 +395,6 @@
     <t>5 4 3</t>
   </si>
   <si>
-    <t>5 4 4</t>
-  </si>
-  <si>
     <t>5 5 1</t>
   </si>
   <si>
@@ -476,9 +404,6 @@
     <t>5 5 3</t>
   </si>
   <si>
-    <t>5 5 4</t>
-  </si>
-  <si>
     <t>5 6 1</t>
   </si>
   <si>
@@ -488,9 +413,6 @@
     <t>5 6 3</t>
   </si>
   <si>
-    <t>5 6 4</t>
-  </si>
-  <si>
     <t>5 7 1</t>
   </si>
   <si>
@@ -500,9 +422,6 @@
     <t>5 7 3</t>
   </si>
   <si>
-    <t>5 7 4</t>
-  </si>
-  <si>
     <t>5 8 1</t>
   </si>
   <si>
@@ -512,7 +431,13 @@
     <t>5 8 3</t>
   </si>
   <si>
-    <t>5 8 4</t>
+    <t>5 9 1</t>
+  </si>
+  <si>
+    <t>5 9 2</t>
+  </si>
+  <si>
+    <t>5 9 3</t>
   </si>
   <si>
     <t>6 1 1</t>
@@ -524,9 +449,6 @@
     <t>6 1 3</t>
   </si>
   <si>
-    <t>6 1 4</t>
-  </si>
-  <si>
     <t>6 2 1</t>
   </si>
   <si>
@@ -536,9 +458,6 @@
     <t>6 2 3</t>
   </si>
   <si>
-    <t>6 2 4</t>
-  </si>
-  <si>
     <t>6 3 1</t>
   </si>
   <si>
@@ -548,9 +467,6 @@
     <t>6 3 3</t>
   </si>
   <si>
-    <t>6 3 4</t>
-  </si>
-  <si>
     <t>6 4 1</t>
   </si>
   <si>
@@ -560,9 +476,6 @@
     <t>6 4 3</t>
   </si>
   <si>
-    <t>6 4 4</t>
-  </si>
-  <si>
     <t>6 5 1</t>
   </si>
   <si>
@@ -572,9 +485,6 @@
     <t>6 5 3</t>
   </si>
   <si>
-    <t>6 5 4</t>
-  </si>
-  <si>
     <t>6 6 1</t>
   </si>
   <si>
@@ -584,9 +494,6 @@
     <t>6 6 3</t>
   </si>
   <si>
-    <t>6 6 4</t>
-  </si>
-  <si>
     <t>6 7 1</t>
   </si>
   <si>
@@ -596,9 +503,6 @@
     <t>6 7 3</t>
   </si>
   <si>
-    <t>6 7 4</t>
-  </si>
-  <si>
     <t>6 8 1</t>
   </si>
   <si>
@@ -608,7 +512,13 @@
     <t>6 8 3</t>
   </si>
   <si>
-    <t>6 8 4</t>
+    <t>6 9 1</t>
+  </si>
+  <si>
+    <t>6 9 2</t>
+  </si>
+  <si>
+    <t>6 9 3</t>
   </si>
   <si>
     <t>7 1 1</t>
@@ -620,9 +530,6 @@
     <t>7 1 3</t>
   </si>
   <si>
-    <t>7 1 4</t>
-  </si>
-  <si>
     <t>7 2 1</t>
   </si>
   <si>
@@ -632,9 +539,6 @@
     <t>7 2 3</t>
   </si>
   <si>
-    <t>7 2 4</t>
-  </si>
-  <si>
     <t>7 3 1</t>
   </si>
   <si>
@@ -644,9 +548,6 @@
     <t>7 3 3</t>
   </si>
   <si>
-    <t>7 3 4</t>
-  </si>
-  <si>
     <t>7 4 1</t>
   </si>
   <si>
@@ -656,9 +557,6 @@
     <t>7 4 3</t>
   </si>
   <si>
-    <t>7 4 4</t>
-  </si>
-  <si>
     <t>7 5 1</t>
   </si>
   <si>
@@ -668,9 +566,6 @@
     <t>7 5 3</t>
   </si>
   <si>
-    <t>7 5 4</t>
-  </si>
-  <si>
     <t>7 6 1</t>
   </si>
   <si>
@@ -680,9 +575,6 @@
     <t>7 6 3</t>
   </si>
   <si>
-    <t>7 6 4</t>
-  </si>
-  <si>
     <t>7 7 1</t>
   </si>
   <si>
@@ -692,9 +584,6 @@
     <t>7 7 3</t>
   </si>
   <si>
-    <t>7 7 4</t>
-  </si>
-  <si>
     <t>7 8 1</t>
   </si>
   <si>
@@ -704,7 +593,13 @@
     <t>7 8 3</t>
   </si>
   <si>
-    <t>7 8 4</t>
+    <t>7 9 1</t>
+  </si>
+  <si>
+    <t>7 9 2</t>
+  </si>
+  <si>
+    <t>7 9 3</t>
   </si>
   <si>
     <t>8 1 1</t>
@@ -716,9 +611,6 @@
     <t>8 1 3</t>
   </si>
   <si>
-    <t>8 1 4</t>
-  </si>
-  <si>
     <t>8 2 1</t>
   </si>
   <si>
@@ -728,9 +620,6 @@
     <t>8 2 3</t>
   </si>
   <si>
-    <t>8 2 4</t>
-  </si>
-  <si>
     <t>8 3 1</t>
   </si>
   <si>
@@ -740,9 +629,6 @@
     <t>8 3 3</t>
   </si>
   <si>
-    <t>8 3 4</t>
-  </si>
-  <si>
     <t>8 4 1</t>
   </si>
   <si>
@@ -752,9 +638,6 @@
     <t>8 4 3</t>
   </si>
   <si>
-    <t>8 4 4</t>
-  </si>
-  <si>
     <t>8 5 1</t>
   </si>
   <si>
@@ -764,9 +647,6 @@
     <t>8 5 3</t>
   </si>
   <si>
-    <t>8 5 4</t>
-  </si>
-  <si>
     <t>8 6 1</t>
   </si>
   <si>
@@ -776,9 +656,6 @@
     <t>8 6 3</t>
   </si>
   <si>
-    <t>8 6 4</t>
-  </si>
-  <si>
     <t>8 7 1</t>
   </si>
   <si>
@@ -788,9 +665,6 @@
     <t>8 7 3</t>
   </si>
   <si>
-    <t>8 7 4</t>
-  </si>
-  <si>
     <t>8 8 1</t>
   </si>
   <si>
@@ -800,7 +674,94 @@
     <t>8 8 3</t>
   </si>
   <si>
-    <t>8 8 4</t>
+    <t>8 9 1</t>
+  </si>
+  <si>
+    <t>8 9 2</t>
+  </si>
+  <si>
+    <t>8 9 3</t>
+  </si>
+  <si>
+    <t>9 1 1</t>
+  </si>
+  <si>
+    <t>9 1 2</t>
+  </si>
+  <si>
+    <t>9 1 3</t>
+  </si>
+  <si>
+    <t>9 2 1</t>
+  </si>
+  <si>
+    <t>9 2 2</t>
+  </si>
+  <si>
+    <t>9 2 3</t>
+  </si>
+  <si>
+    <t>9 3 1</t>
+  </si>
+  <si>
+    <t>9 3 2</t>
+  </si>
+  <si>
+    <t>9 3 3</t>
+  </si>
+  <si>
+    <t>9 4 1</t>
+  </si>
+  <si>
+    <t>9 4 2</t>
+  </si>
+  <si>
+    <t>9 4 3</t>
+  </si>
+  <si>
+    <t>9 5 1</t>
+  </si>
+  <si>
+    <t>9 5 2</t>
+  </si>
+  <si>
+    <t>9 5 3</t>
+  </si>
+  <si>
+    <t>9 6 1</t>
+  </si>
+  <si>
+    <t>9 6 2</t>
+  </si>
+  <si>
+    <t>9 6 3</t>
+  </si>
+  <si>
+    <t>9 7 1</t>
+  </si>
+  <si>
+    <t>9 7 2</t>
+  </si>
+  <si>
+    <t>9 7 3</t>
+  </si>
+  <si>
+    <t>9 8 1</t>
+  </si>
+  <si>
+    <t>9 8 2</t>
+  </si>
+  <si>
+    <t>9 8 3</t>
+  </si>
+  <si>
+    <t>9 9 1</t>
+  </si>
+  <si>
+    <t>9 9 2</t>
+  </si>
+  <si>
+    <t>9 9 3</t>
   </si>
   <si>
     <t>Критерий №2</t>
@@ -851,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:IW12"/>
+  <dimension ref="A1:IJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -870,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -878,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1622,822 +1583,744 @@
       <c r="IJ5" t="s">
         <v>249</v>
       </c>
-      <c r="IK5" t="s">
-        <v>250</v>
-      </c>
-      <c r="IL5" t="s">
-        <v>251</v>
-      </c>
-      <c r="IM5" t="s">
-        <v>252</v>
-      </c>
-      <c r="IN5" t="s">
-        <v>253</v>
-      </c>
-      <c r="IO5" t="s">
-        <v>254</v>
-      </c>
-      <c r="IP5" t="s">
-        <v>255</v>
-      </c>
-      <c r="IQ5" t="s">
-        <v>256</v>
-      </c>
-      <c r="IR5" t="s">
-        <v>257</v>
-      </c>
-      <c r="IS5" t="s">
-        <v>258</v>
-      </c>
-      <c r="IT5" t="s">
-        <v>259</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>260</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>261</v>
-      </c>
-      <c r="IW5" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5786.0</v>
+        <v>7443.0</v>
       </c>
       <c r="C6" t="n">
-        <v>6203.0</v>
+        <v>1548.0</v>
       </c>
       <c r="D6" t="n">
-        <v>9243.0</v>
+        <v>3529.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3176.0</v>
+        <v>9594.0</v>
       </c>
       <c r="F6" t="n">
-        <v>552.0</v>
+        <v>6019.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5147.0</v>
+        <v>3243.0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.0</v>
+        <v>2858.0</v>
       </c>
       <c r="I6" t="n">
-        <v>7371.0</v>
+        <v>3114.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2739.0</v>
+        <v>6632.0</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0</v>
+        <v>2864.0</v>
       </c>
       <c r="L6" t="n">
-        <v>3503.0</v>
+        <v>8571.0</v>
       </c>
       <c r="M6" t="n">
-        <v>7180.0</v>
+        <v>6852.0</v>
       </c>
       <c r="N6" t="n">
-        <v>9078.0</v>
+        <v>833.0</v>
       </c>
       <c r="O6" t="n">
-        <v>6249.0</v>
+        <v>3928.0</v>
       </c>
       <c r="P6" t="n">
-        <v>7452.0</v>
+        <v>4108.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2955.0</v>
+        <v>2285.0</v>
       </c>
       <c r="R6" t="n">
-        <v>7360.0</v>
+        <v>8287.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.0</v>
+        <v>1720.0</v>
       </c>
       <c r="T6" t="n">
-        <v>9783.0</v>
+        <v>3316.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1141.0</v>
+        <v>8104.0</v>
       </c>
       <c r="V6" t="n">
-        <v>261.0</v>
+        <v>6413.0</v>
       </c>
       <c r="W6" t="n">
-        <v>3621.0</v>
+        <v>9278.0</v>
       </c>
       <c r="X6" t="n">
-        <v>7607.0</v>
+        <v>8332.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6753.0</v>
+        <v>3918.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>2212.0</v>
+        <v>1698.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>5196.0</v>
+        <v>1754.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>6644.0</v>
+        <v>6529.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>4889.0</v>
+        <v>9745.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>5998.0</v>
+        <v>3743.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>3904.0</v>
+        <v>8777.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>4534.0</v>
+        <v>4899.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>2704.0</v>
+        <v>6815.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4661.0</v>
+        <v>2783.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>2773.0</v>
+        <v>9459.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1084.0</v>
+        <v>1238.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>911.0</v>
+        <v>7901.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>6025.0</v>
+        <v>6276.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1069.0</v>
+        <v>7514.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>5299.0</v>
+        <v>2854.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1722.0</v>
+        <v>841.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1690.0</v>
+        <v>476.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3863.0</v>
+        <v>4576.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>3757.0</v>
+        <v>5172.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>8403.0</v>
+        <v>7233.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>9707.0</v>
+        <v>8396.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>6692.0</v>
+        <v>8273.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>7382.0</v>
+        <v>4558.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>100.0</v>
+        <v>9376.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>303.0</v>
+        <v>6485.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>3999.0</v>
+        <v>7858.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4010.0</v>
+        <v>1984.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>4468.0</v>
+        <v>2437.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>7015.0</v>
+        <v>8505.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>7762.0</v>
+        <v>4277.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>2267.0</v>
+        <v>6704.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>9760.0</v>
+        <v>5576.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>1360.0</v>
+        <v>6572.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>5816.0</v>
+        <v>3431.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>8213.0</v>
+        <v>2066.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>7499.0</v>
+        <v>5283.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>7811.0</v>
+        <v>6170.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>7704.0</v>
+        <v>1101.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>4.0</v>
+        <v>8745.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>6650.0</v>
+        <v>6538.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>7209.0</v>
+        <v>4032.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>9589.0</v>
+        <v>5491.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>7349.0</v>
+        <v>4237.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>275.0</v>
+        <v>2570.0</v>
       </c>
       <c r="BR6" t="n">
-        <v>1037.0</v>
+        <v>5225.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>8777.0</v>
+        <v>8703.0</v>
       </c>
       <c r="BT6" t="n">
-        <v>1958.0</v>
+        <v>1291.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>6062.0</v>
+        <v>1988.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>5954.0</v>
+        <v>8530.0</v>
       </c>
       <c r="BW6" t="n">
+        <v>1543.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2094.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2813.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>7250.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>7060.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>9491.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>6576.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>5953.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>6927.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1314.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>2344.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1389.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>8951.0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>7385.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>7450.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>7851.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>6706.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1569.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>6601.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>5417.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>4231.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>8327.0</v>
+      </c>
+      <c r="CU6" t="n">
         <v>2651.0</v>
       </c>
-      <c r="BX6" t="n">
-        <v>2361.0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>2834.0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>7902.0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>6504.0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>1484.0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>6176.0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>7717.0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>9626.0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>8210.0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>7631.0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>5683.0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>9302.0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>4748.0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>3606.0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>748.0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>7881.0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>2045.0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>1226.0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>8987.0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>6415.0</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>7247.0</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>7725.0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>5108.0</v>
-      </c>
       <c r="CV6" t="n">
-        <v>8096.0</v>
+        <v>282.0</v>
       </c>
       <c r="CW6" t="n">
-        <v>5761.0</v>
+        <v>3008.0</v>
       </c>
       <c r="CX6" t="n">
-        <v>5766.0</v>
+        <v>8204.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>290.0</v>
+        <v>3698.0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>7453.0</v>
+        <v>2454.0</v>
       </c>
       <c r="DA6" t="n">
-        <v>9205.0</v>
+        <v>5067.0</v>
       </c>
       <c r="DB6" t="n">
-        <v>5108.0</v>
+        <v>9943.0</v>
       </c>
       <c r="DC6" t="n">
-        <v>8463.0</v>
+        <v>3517.0</v>
       </c>
       <c r="DD6" t="n">
-        <v>7840.0</v>
+        <v>4156.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>3071.0</v>
+        <v>8529.0</v>
       </c>
       <c r="DF6" t="n">
-        <v>5144.0</v>
+        <v>6551.0</v>
       </c>
       <c r="DG6" t="n">
-        <v>85.0</v>
+        <v>6423.0</v>
       </c>
       <c r="DH6" t="n">
-        <v>4744.0</v>
+        <v>7060.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>4099.0</v>
+        <v>8438.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>885.0</v>
+        <v>295.0</v>
       </c>
       <c r="DK6" t="n">
-        <v>7155.0</v>
+        <v>3402.0</v>
       </c>
       <c r="DL6" t="n">
-        <v>9633.0</v>
+        <v>4550.0</v>
       </c>
       <c r="DM6" t="n">
-        <v>2631.0</v>
+        <v>6558.0</v>
       </c>
       <c r="DN6" t="n">
+        <v>1334.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>2734.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>9258.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>3180.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1439.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>5344.0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>5698.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>5861.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>967.0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>7208.0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>4417.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>3929.0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>4939.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>3342.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>2306.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>6982.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>5470.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>4843.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>4855.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>1116.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>2779.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>3399.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>6038.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>3547.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>9758.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>8956.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>4891.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>1157.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>4231.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>9192.0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>4694.0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>7603.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>4548.0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>4579.0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>9606.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>8683.0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>2659.0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>3029.0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>3571.0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>9566.0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>8613.0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>1766.0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>5724.0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>6020.0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>5971.0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>5912.0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>9513.0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>5415.0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>7070.0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>1456.0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>5875.0</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>4094.0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>4185.0</v>
+      </c>
+      <c r="FX6" t="n">
         <v>2052.0</v>
       </c>
-      <c r="DO6" t="n">
-        <v>9461.0</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>4763.0</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>533.0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>8574.0</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>2924.0</v>
-      </c>
-      <c r="DT6" t="n">
+      <c r="FY6" t="n">
+        <v>6381.0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>2474.0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>3475.0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>7150.0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>5915.0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>9809.0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>2725.0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>4066.0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>3166.0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>4326.0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>7552.0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>6334.0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>3232.0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>5525.0</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>6527.0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>6057.0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>5464.0</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>8779.0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>9419.0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>2630.0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>3019.0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>6278.0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>3530.0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>6238.0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>9983.0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>6946.0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>7492.0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>9807.0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>1214.0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>9889.0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>3062.0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>9552.0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>9962.0</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>1671.0</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>4057.0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>5189.0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>2294.0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>5208.0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>9418.0</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>2511.0</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>5593.0</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>7548.0</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>8377.0</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>1569.0</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>9060.0</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>4984.0</v>
+      </c>
+      <c r="HW6" t="n">
         <v>8069.0</v>
       </c>
-      <c r="DU6" t="n">
-        <v>9710.0</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>9379.0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>4321.0</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>6032.0</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>1018.0</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>7824.0</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>5303.0</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>8967.0</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>8484.0</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>6278.0</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>2665.0</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>7579.0</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>9130.0</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>4474.0</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>1087.0</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>1827.0</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>4393.0</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>1052.0</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>9221.0</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>3133.0</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>5211.0</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>5412.0</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>9915.0</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>8820.0</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>9115.0</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>7454.0</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>591.0</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>3274.0</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>4378.0</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>6092.0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>3785.0</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>3192.0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>3510.0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>6572.0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>277.0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>3148.0</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>1065.0</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>3676.0</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>7216.0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>3853.0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>4462.0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>5823.0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>2860.0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>3460.0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>361.0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>3856.0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>5714.0</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>8052.0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>3938.0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>6532.0</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>577.0</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>5382.0</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>7091.0</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>7206.0</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>6870.0</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>3292.0</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>9941.0</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>5257.0</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>2294.0</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>4104.0</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>4551.0</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>3079.0</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>1246.0</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>4768.0</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>9598.0</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>7944.0</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>4843.0</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>3765.0</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>235.0</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>1731.0</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>458.0</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>2865.0</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>7384.0</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>2441.0</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>7811.0</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>1786.0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>9800.0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>7065.0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>3867.0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>1415.0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>8419.0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>3615.0</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>275.0</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>8059.0</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>5221.0</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>9350.0</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>7974.0</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>7807.0</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>3885.0</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>8989.0</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>1954.0</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>3822.0</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>6170.0</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>5723.0</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>8522.0</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>5448.0</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>5914.0</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>3181.0</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>6139.0</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>4157.0</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>6576.0</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>9107.0</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>7592.0</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>2900.0</v>
-      </c>
       <c r="HX6" t="n">
-        <v>143.0</v>
+        <v>6784.0</v>
       </c>
       <c r="HY6" t="n">
-        <v>4419.0</v>
+        <v>664.0</v>
       </c>
       <c r="HZ6" t="n">
-        <v>842.0</v>
+        <v>7378.0</v>
       </c>
       <c r="IA6" t="n">
-        <v>2208.0</v>
+        <v>6178.0</v>
       </c>
       <c r="IB6" t="n">
-        <v>4945.0</v>
+        <v>7562.0</v>
       </c>
       <c r="IC6" t="n">
-        <v>4503.0</v>
+        <v>667.0</v>
       </c>
       <c r="ID6" t="n">
-        <v>8211.0</v>
+        <v>6299.0</v>
       </c>
       <c r="IE6" t="n">
-        <v>8495.0</v>
+        <v>5030.0</v>
       </c>
       <c r="IF6" t="n">
-        <v>7378.0</v>
+        <v>3978.0</v>
       </c>
       <c r="IG6" t="n">
-        <v>3150.0</v>
+        <v>1967.0</v>
       </c>
       <c r="IH6" t="n">
-        <v>8746.0</v>
+        <v>9271.0</v>
       </c>
       <c r="II6" t="n">
-        <v>7494.0</v>
+        <v>4384.0</v>
       </c>
       <c r="IJ6" t="n">
-        <v>7923.0</v>
-      </c>
-      <c r="IK6" t="n">
-        <v>3368.0</v>
-      </c>
-      <c r="IL6" t="n">
-        <v>6600.0</v>
-      </c>
-      <c r="IM6" t="n">
-        <v>8439.0</v>
-      </c>
-      <c r="IN6" t="n">
-        <v>4929.0</v>
-      </c>
-      <c r="IO6" t="n">
-        <v>3443.0</v>
-      </c>
-      <c r="IP6" t="n">
-        <v>9020.0</v>
-      </c>
-      <c r="IQ6" t="n">
-        <v>2719.0</v>
-      </c>
-      <c r="IR6" t="n">
-        <v>595.0</v>
-      </c>
-      <c r="IS6" t="n">
-        <v>1113.0</v>
-      </c>
-      <c r="IT6" t="n">
-        <v>1162.0</v>
-      </c>
-      <c r="IU6" t="n">
-        <v>4060.0</v>
-      </c>
-      <c r="IV6" t="n">
-        <v>2363.0</v>
-      </c>
-      <c r="IW6" t="n">
-        <v>3463.0</v>
+        <v>1280.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -3167,45 +3050,6 @@
       </c>
       <c r="IJ8" t="s">
         <v>249</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>250</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>251</v>
-      </c>
-      <c r="IM8" t="s">
-        <v>252</v>
-      </c>
-      <c r="IN8" t="s">
-        <v>253</v>
-      </c>
-      <c r="IO8" t="s">
-        <v>254</v>
-      </c>
-      <c r="IP8" t="s">
-        <v>255</v>
-      </c>
-      <c r="IQ8" t="s">
-        <v>256</v>
-      </c>
-      <c r="IR8" t="s">
-        <v>257</v>
-      </c>
-      <c r="IS8" t="s">
-        <v>258</v>
-      </c>
-      <c r="IT8" t="s">
-        <v>259</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>260</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>261</v>
-      </c>
-      <c r="IW8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9">
@@ -3213,777 +3057,738 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1376.0</v>
+        <v>1429.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5994.0</v>
+        <v>3194.0</v>
       </c>
       <c r="D9" t="n">
-        <v>9479.0</v>
+        <v>2778.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5257.0</v>
+        <v>4117.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9803.0</v>
+        <v>6405.0</v>
       </c>
       <c r="G9" t="n">
-        <v>6364.0</v>
+        <v>6113.0</v>
       </c>
       <c r="H9" t="n">
-        <v>8872.0</v>
+        <v>4162.0</v>
       </c>
       <c r="I9" t="n">
-        <v>3819.0</v>
+        <v>9318.0</v>
       </c>
       <c r="J9" t="n">
-        <v>5194.0</v>
+        <v>5144.0</v>
       </c>
       <c r="K9" t="n">
-        <v>7900.0</v>
+        <v>8370.0</v>
       </c>
       <c r="L9" t="n">
-        <v>6717.0</v>
+        <v>1233.0</v>
       </c>
       <c r="M9" t="n">
-        <v>4284.0</v>
+        <v>4226.0</v>
       </c>
       <c r="N9" t="n">
-        <v>9705.0</v>
+        <v>7205.0</v>
       </c>
       <c r="O9" t="n">
-        <v>8570.0</v>
+        <v>1237.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2016.0</v>
+        <v>9430.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5066.0</v>
+        <v>6163.0</v>
       </c>
       <c r="R9" t="n">
-        <v>9081.0</v>
+        <v>91.0</v>
       </c>
       <c r="S9" t="n">
-        <v>5280.0</v>
+        <v>3609.0</v>
       </c>
       <c r="T9" t="n">
-        <v>6414.0</v>
+        <v>5829.0</v>
       </c>
       <c r="U9" t="n">
-        <v>9737.0</v>
+        <v>7401.0</v>
       </c>
       <c r="V9" t="n">
-        <v>6137.0</v>
+        <v>1359.0</v>
       </c>
       <c r="W9" t="n">
-        <v>9782.0</v>
+        <v>5044.0</v>
       </c>
       <c r="X9" t="n">
-        <v>33.0</v>
+        <v>5350.0</v>
       </c>
       <c r="Y9" t="n">
+        <v>9183.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6512.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2611.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7806.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9127.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8584.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5522.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9786.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6368.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9154.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>7187.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2262.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7207.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9665.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3638.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>7240.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>6685.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>9540.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>8023.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>2978.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2889.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>4177.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>7821.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>5209.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2772.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>4305.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>6797.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>9456.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>8225.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4776.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2842.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>8331.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>5677.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>8530.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3685.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>7173.0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9077.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>8277.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2041.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>6103.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>5035.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>5635.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>3274.0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>2615.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>3162.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>742.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>6868.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>5630.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1767.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>5678.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>4343.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>5300.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>5461.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>9113.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>7498.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>1417.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>1074.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>9830.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>7647.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>3637.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>7496.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>9819.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>9166.0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>6677.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>1795.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>1766.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>3080.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>8247.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>3734.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>3022.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>6213.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>2418.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>7930.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>4312.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>1340.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>8529.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>1247.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>8139.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>8593.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>5254.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>7963.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>8933.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>5887.0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>6195.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>9141.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>6606.0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>4540.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>4442.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>5246.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>5071.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>5753.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>8341.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>4394.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>9813.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>3158.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>6415.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>1546.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>3844.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>2195.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>7294.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>1185.0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>6276.0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>9262.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>3860.0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>6174.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>3413.0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>6542.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>2980.0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>740.0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>2303.0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>1545.0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>3168.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>3361.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>5507.0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>2232.0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>6239.0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>7266.0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>5801.0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>9676.0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>1498.0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>2122.0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>3960.0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>5347.0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>2511.0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>6474.0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>5281.0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>1632.0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>5581.0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>8522.0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>5378.0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>3775.0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>6232.0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>1586.0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>2783.0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>8678.0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>5003.0</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>8595.0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>6756.0</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>5527.0</v>
+      </c>
+      <c r="GL9" t="n">
         <v>8146.0</v>
       </c>
-      <c r="Z9" t="n">
-        <v>8712.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6202.0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6615.0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6585.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9409.0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5455.0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2478.0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>4071.0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>3303.0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2989.0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>2897.0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>9413.0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1580.0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2842.0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6385.0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1627.0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>3570.0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2729.0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2045.0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>4465.0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>7008.0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>2061.0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>7700.0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4385.0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6526.0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>7195.0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>6793.0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>3351.0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>5960.0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>209.0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>820.0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>4964.0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>6575.0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>5115.0</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>528.0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>2121.0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>4438.0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>6671.0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>3819.0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>1979.0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>3927.0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>930.0</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>391.0</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>1393.0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>9410.0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>8361.0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>3382.0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>9779.0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>8367.0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>3028.0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>7754.0</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>4956.0</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>8675.0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>3361.0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>8788.0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>9600.0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>4630.0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>5142.0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>4171.0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>740.0</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>8654.0</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>1229.0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>2864.0</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>8002.0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>7593.0</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>4599.0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>7793.0</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>1290.0</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>1807.0</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>9623.0</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>7682.0</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>4313.0</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>1947.0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>1613.0</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>3371.0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>9935.0</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>9557.0</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>6997.0</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>5284.0</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>6177.0</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>4113.0</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>7260.0</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>6972.0</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>9157.0</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>9771.0</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>1635.0</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>2089.0</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>6227.0</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>4726.0</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>8754.0</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>3773.0</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>5025.0</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>2705.0</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>1104.0</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>8234.0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>5395.0</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>3983.0</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>1830.0</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>9774.0</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>2728.0</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>723.0</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>3010.0</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>2557.0</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>5967.0</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>7745.0</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>9038.0</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>3744.0</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>4477.0</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>5291.0</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>8705.0</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>9126.0</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>846.0</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>3940.0</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>2980.0</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>4303.0</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>7215.0</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>2100.0</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>3001.0</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>6652.0</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>312.0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>7766.0</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>3404.0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>8732.0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>6663.0</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>6727.0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>9576.0</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>747.0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>5618.0</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>5342.0</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>8650.0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>6953.0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>6686.0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>7126.0</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>3173.0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>8475.0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>9449.0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>8924.0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>3229.0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>2922.0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>8827.0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>4235.0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>7504.0</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>9388.0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>5859.0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>8374.0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>6303.0</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>5944.0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>4295.0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>2598.0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>9843.0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>5583.0</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>6287.0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>2049.0</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>3267.0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>5722.0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>6277.0</v>
-      </c>
-      <c r="GE9" t="n">
-        <v>5440.0</v>
-      </c>
-      <c r="GF9" t="n">
-        <v>5796.0</v>
-      </c>
-      <c r="GG9" t="n">
-        <v>5813.0</v>
-      </c>
-      <c r="GH9" t="n">
-        <v>739.0</v>
-      </c>
-      <c r="GI9" t="n">
-        <v>2778.0</v>
-      </c>
-      <c r="GJ9" t="n">
-        <v>5184.0</v>
-      </c>
-      <c r="GK9" t="n">
-        <v>7423.0</v>
-      </c>
-      <c r="GL9" t="n">
-        <v>2902.0</v>
-      </c>
       <c r="GM9" t="n">
-        <v>1083.0</v>
+        <v>933.0</v>
       </c>
       <c r="GN9" t="n">
-        <v>202.0</v>
+        <v>342.0</v>
       </c>
       <c r="GO9" t="n">
-        <v>1198.0</v>
+        <v>5435.0</v>
       </c>
       <c r="GP9" t="n">
-        <v>5758.0</v>
+        <v>6393.0</v>
       </c>
       <c r="GQ9" t="n">
-        <v>7080.0</v>
+        <v>2346.0</v>
       </c>
       <c r="GR9" t="n">
-        <v>3287.0</v>
+        <v>5818.0</v>
       </c>
       <c r="GS9" t="n">
-        <v>5544.0</v>
+        <v>1500.0</v>
       </c>
       <c r="GT9" t="n">
-        <v>3735.0</v>
+        <v>3986.0</v>
       </c>
       <c r="GU9" t="n">
-        <v>132.0</v>
+        <v>7804.0</v>
       </c>
       <c r="GV9" t="n">
-        <v>2663.0</v>
+        <v>5451.0</v>
       </c>
       <c r="GW9" t="n">
-        <v>2572.0</v>
+        <v>9048.0</v>
       </c>
       <c r="GX9" t="n">
-        <v>3267.0</v>
+        <v>800.0</v>
       </c>
       <c r="GY9" t="n">
-        <v>8298.0</v>
+        <v>6497.0</v>
       </c>
       <c r="GZ9" t="n">
-        <v>8272.0</v>
+        <v>2261.0</v>
       </c>
       <c r="HA9" t="n">
-        <v>7869.0</v>
+        <v>5834.0</v>
       </c>
       <c r="HB9" t="n">
-        <v>5124.0</v>
+        <v>7030.0</v>
       </c>
       <c r="HC9" t="n">
-        <v>5350.0</v>
+        <v>1981.0</v>
       </c>
       <c r="HD9" t="n">
-        <v>8663.0</v>
+        <v>8555.0</v>
       </c>
       <c r="HE9" t="n">
-        <v>2004.0</v>
+        <v>519.0</v>
       </c>
       <c r="HF9" t="n">
-        <v>6898.0</v>
+        <v>354.0</v>
       </c>
       <c r="HG9" t="n">
-        <v>6808.0</v>
+        <v>1095.0</v>
       </c>
       <c r="HH9" t="n">
-        <v>6619.0</v>
+        <v>4852.0</v>
       </c>
       <c r="HI9" t="n">
-        <v>3320.0</v>
+        <v>5974.0</v>
       </c>
       <c r="HJ9" t="n">
-        <v>2279.0</v>
+        <v>9643.0</v>
       </c>
       <c r="HK9" t="n">
-        <v>8617.0</v>
+        <v>5351.0</v>
       </c>
       <c r="HL9" t="n">
-        <v>9766.0</v>
+        <v>3890.0</v>
       </c>
       <c r="HM9" t="n">
-        <v>3538.0</v>
+        <v>2169.0</v>
       </c>
       <c r="HN9" t="n">
-        <v>4900.0</v>
+        <v>9306.0</v>
       </c>
       <c r="HO9" t="n">
-        <v>2967.0</v>
+        <v>3768.0</v>
       </c>
       <c r="HP9" t="n">
-        <v>8654.0</v>
+        <v>9772.0</v>
       </c>
       <c r="HQ9" t="n">
-        <v>9963.0</v>
+        <v>8121.0</v>
       </c>
       <c r="HR9" t="n">
-        <v>8416.0</v>
+        <v>4781.0</v>
       </c>
       <c r="HS9" t="n">
-        <v>1909.0</v>
+        <v>4767.0</v>
       </c>
       <c r="HT9" t="n">
-        <v>8861.0</v>
+        <v>8910.0</v>
       </c>
       <c r="HU9" t="n">
-        <v>675.0</v>
+        <v>7490.0</v>
       </c>
       <c r="HV9" t="n">
-        <v>1232.0</v>
+        <v>8907.0</v>
       </c>
       <c r="HW9" t="n">
-        <v>966.0</v>
+        <v>8748.0</v>
       </c>
       <c r="HX9" t="n">
-        <v>5597.0</v>
+        <v>3783.0</v>
       </c>
       <c r="HY9" t="n">
-        <v>1988.0</v>
+        <v>7821.0</v>
       </c>
       <c r="HZ9" t="n">
-        <v>3822.0</v>
+        <v>948.0</v>
       </c>
       <c r="IA9" t="n">
-        <v>1688.0</v>
+        <v>2284.0</v>
       </c>
       <c r="IB9" t="n">
-        <v>8929.0</v>
+        <v>2745.0</v>
       </c>
       <c r="IC9" t="n">
-        <v>668.0</v>
+        <v>9117.0</v>
       </c>
       <c r="ID9" t="n">
-        <v>8941.0</v>
+        <v>4895.0</v>
       </c>
       <c r="IE9" t="n">
-        <v>4252.0</v>
+        <v>9467.0</v>
       </c>
       <c r="IF9" t="n">
-        <v>5302.0</v>
+        <v>9109.0</v>
       </c>
       <c r="IG9" t="n">
-        <v>6936.0</v>
+        <v>3466.0</v>
       </c>
       <c r="IH9" t="n">
-        <v>198.0</v>
+        <v>1353.0</v>
       </c>
       <c r="II9" t="n">
-        <v>8644.0</v>
+        <v>5897.0</v>
       </c>
       <c r="IJ9" t="n">
-        <v>6323.0</v>
-      </c>
-      <c r="IK9" t="n">
-        <v>8123.0</v>
-      </c>
-      <c r="IL9" t="n">
-        <v>2432.0</v>
-      </c>
-      <c r="IM9" t="n">
-        <v>5677.0</v>
-      </c>
-      <c r="IN9" t="n">
-        <v>8932.0</v>
-      </c>
-      <c r="IO9" t="n">
-        <v>6957.0</v>
-      </c>
-      <c r="IP9" t="n">
-        <v>8129.0</v>
-      </c>
-      <c r="IQ9" t="n">
-        <v>7179.0</v>
-      </c>
-      <c r="IR9" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="IS9" t="n">
-        <v>2994.0</v>
-      </c>
-      <c r="IT9" t="n">
-        <v>7720.0</v>
-      </c>
-      <c r="IU9" t="n">
-        <v>8050.0</v>
-      </c>
-      <c r="IV9" t="n">
-        <v>3281.0</v>
-      </c>
-      <c r="IW9" t="n">
-        <v>405.0</v>
+        <v>570.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -4713,45 +4518,6 @@
       </c>
       <c r="IJ11" t="s">
         <v>249</v>
-      </c>
-      <c r="IK11" t="s">
-        <v>250</v>
-      </c>
-      <c r="IL11" t="s">
-        <v>251</v>
-      </c>
-      <c r="IM11" t="s">
-        <v>252</v>
-      </c>
-      <c r="IN11" t="s">
-        <v>253</v>
-      </c>
-      <c r="IO11" t="s">
-        <v>254</v>
-      </c>
-      <c r="IP11" t="s">
-        <v>255</v>
-      </c>
-      <c r="IQ11" t="s">
-        <v>256</v>
-      </c>
-      <c r="IR11" t="s">
-        <v>257</v>
-      </c>
-      <c r="IS11" t="s">
-        <v>258</v>
-      </c>
-      <c r="IT11" t="s">
-        <v>259</v>
-      </c>
-      <c r="IU11" t="s">
-        <v>260</v>
-      </c>
-      <c r="IV11" t="s">
-        <v>261</v>
-      </c>
-      <c r="IW11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -4759,772 +4525,733 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>8021.0</v>
+        <v>3800.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1556.0</v>
+        <v>7769.0</v>
       </c>
       <c r="D12" t="n">
-        <v>6804.0</v>
+        <v>6032.0</v>
       </c>
       <c r="E12" t="n">
-        <v>475.0</v>
+        <v>5660.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2278.0</v>
+        <v>6479.0</v>
       </c>
       <c r="G12" t="n">
-        <v>3243.0</v>
+        <v>5085.0</v>
       </c>
       <c r="H12" t="n">
-        <v>5988.0</v>
+        <v>5176.0</v>
       </c>
       <c r="I12" t="n">
-        <v>2544.0</v>
+        <v>7364.0</v>
       </c>
       <c r="J12" t="n">
-        <v>7380.0</v>
+        <v>9390.0</v>
       </c>
       <c r="K12" t="n">
-        <v>8136.0</v>
+        <v>4962.0</v>
       </c>
       <c r="L12" t="n">
-        <v>8961.0</v>
+        <v>3259.0</v>
       </c>
       <c r="M12" t="n">
-        <v>2840.0</v>
+        <v>5315.0</v>
       </c>
       <c r="N12" t="n">
-        <v>8573.0</v>
+        <v>4497.0</v>
       </c>
       <c r="O12" t="n">
-        <v>529.0</v>
+        <v>680.0</v>
       </c>
       <c r="P12" t="n">
-        <v>3352.0</v>
+        <v>8735.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6667.0</v>
+        <v>7022.0</v>
       </c>
       <c r="R12" t="n">
-        <v>9763.0</v>
+        <v>1398.0</v>
       </c>
       <c r="S12" t="n">
-        <v>5599.0</v>
+        <v>6510.0</v>
       </c>
       <c r="T12" t="n">
-        <v>5277.0</v>
+        <v>7424.0</v>
       </c>
       <c r="U12" t="n">
-        <v>5781.0</v>
+        <v>5492.0</v>
       </c>
       <c r="V12" t="n">
-        <v>7899.0</v>
+        <v>6312.0</v>
       </c>
       <c r="W12" t="n">
-        <v>7298.0</v>
+        <v>4919.0</v>
       </c>
       <c r="X12" t="n">
-        <v>2979.0</v>
+        <v>2928.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>9398.0</v>
+        <v>5311.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>3265.0</v>
+        <v>9158.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>7579.0</v>
+        <v>8317.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>8993.0</v>
+        <v>2382.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>4262.0</v>
+        <v>1729.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>3601.0</v>
+        <v>9891.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>7832.0</v>
+        <v>2210.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>6002.0</v>
+        <v>3698.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>6489.0</v>
+        <v>7646.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>8881.0</v>
+        <v>4133.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>4622.0</v>
+        <v>9624.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>602.0</v>
+        <v>8253.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>5445.0</v>
+        <v>1517.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>5304.0</v>
+        <v>7232.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>8300.0</v>
+        <v>2419.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>6074.0</v>
+        <v>5991.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>7886.0</v>
+        <v>5145.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1620.0</v>
+        <v>5407.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4872.0</v>
+        <v>3776.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>9981.0</v>
+        <v>8293.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>8720.0</v>
+        <v>4085.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>8228.0</v>
+        <v>2366.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>8622.0</v>
+        <v>7475.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>4887.0</v>
+        <v>7647.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>3357.0</v>
+        <v>4963.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>9684.0</v>
+        <v>9893.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>5417.0</v>
+        <v>3893.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>844.0</v>
+        <v>2153.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>5378.0</v>
+        <v>3392.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>4211.0</v>
+        <v>1294.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>4387.0</v>
+        <v>9627.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>6422.0</v>
+        <v>7183.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>2470.0</v>
+        <v>3367.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>9604.0</v>
+        <v>7311.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>8691.0</v>
+        <v>7545.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>981.0</v>
+        <v>6170.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>2971.0</v>
+        <v>4032.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3535.0</v>
+        <v>5132.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>4481.0</v>
+        <v>6696.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>4679.0</v>
+        <v>7385.0</v>
       </c>
       <c r="BM12" t="n">
+        <v>2531.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2461.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>7035.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>3859.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>2290.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>2158.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>9114.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4532.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>9833.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>4386.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>2269.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>7069.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>2256.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>8516.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>8105.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>2644.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>2370.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>7919.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>9210.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>3209.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>9522.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>4547.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>7580.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>4130.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>9890.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>4968.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>1291.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>843.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>9923.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>6418.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>9451.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>7444.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>5331.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>6984.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>2693.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>2669.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>8627.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>2142.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>7760.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>603.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>6771.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>2489.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>8725.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>8678.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>8488.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>1337.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>6109.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>3014.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>2933.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>5454.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>9998.0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>2886.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>7604.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>4544.0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>5237.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>8608.0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>1244.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>4117.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>8171.0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>8705.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>1127.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>7117.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>2372.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>9282.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>3518.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>6463.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>1038.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>3038.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>9773.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>4599.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>9385.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>8869.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>6736.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>9676.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>2168.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>9716.0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>4076.0</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>617.0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>8090.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>5952.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>1532.0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>3505.0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>5833.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>6866.0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>4470.0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>6402.0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>7122.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>8329.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>7849.0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>1445.0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>9759.0</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>9832.0</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>6346.0</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>2608.0</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>615.0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>8104.0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>3765.0</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>5697.0</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>2198.0</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>4686.0</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>4271.0</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>9976.0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>4385.0</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>3567.0</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>5872.0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>7548.0</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>3277.0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>6985.0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>6997.0</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>9080.0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>8220.0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>9426.0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>9649.0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>8496.0</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>1129.0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>2634.0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>9855.0</v>
+      </c>
+      <c r="GN12" t="n">
         <v>5215.0</v>
       </c>
-      <c r="BN12" t="n">
-        <v>7656.0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>858.0</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>4268.0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>1887.0</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>9150.0</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>2576.0</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>2087.0</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>2051.0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>415.0</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>1591.0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>2924.0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>4194.0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>7400.0</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>3168.0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>8344.0</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>4674.0</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>9814.0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>7151.0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>986.0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>7281.0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>1868.0</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>5312.0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>1900.0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>1293.0</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>538.0</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>1188.0</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>2482.0</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>7338.0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>9411.0</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>9719.0</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>8815.0</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>2698.0</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>7382.0</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>6219.0</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>7922.0</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>4544.0</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>2920.0</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>4089.0</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>9697.0</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>4575.0</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>767.0</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>4866.0</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>5959.0</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>8581.0</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>5744.0</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>7136.0</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>8160.0</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>9614.0</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>1005.0</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>2419.0</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>9433.0</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>5128.0</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>7712.0</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>820.0</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>4524.0</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>2763.0</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>6520.0</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>3246.0</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>179.0</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>3111.0</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>8909.0</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>4225.0</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>456.0</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>5201.0</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>4436.0</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>1552.0</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>9288.0</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>1001.0</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>5278.0</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>9095.0</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>8904.0</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>7866.0</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>7778.0</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>1866.0</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>6199.0</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>5320.0</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>731.0</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>7313.0</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>2423.0</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>5994.0</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>8564.0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>5861.0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>3077.0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>8613.0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>4364.0</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>1329.0</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>1442.0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>583.0</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>9907.0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>6129.0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>5249.0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>8258.0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>1549.0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>2631.0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>2921.0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>894.0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>5416.0</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>3884.0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>501.0</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>2509.0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>2638.0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>4012.0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>2898.0</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>4385.0</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>5585.0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>1023.0</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>3380.0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>9785.0</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>8998.0</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>2518.0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>3421.0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>1624.0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>5740.0</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>7864.0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>914.0</v>
-      </c>
-      <c r="GG12" t="n">
+      <c r="GO12" t="n">
+        <v>2118.0</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>2977.0</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>9153.0</v>
+      </c>
+      <c r="GR12" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>589.0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>8653.0</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>3745.0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>9344.0</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>3481.0</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>5572.0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>1395.0</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>4370.0</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>3889.0</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>588.0</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>2769.0</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>5584.0</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>9069.0</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>8751.0</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>3602.0</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>7005.0</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>5117.0</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>9903.0</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>5026.0</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>9268.0</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>7710.0</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>6766.0</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>4132.0</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>7970.0</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>3614.0</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>9350.0</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>9113.0</v>
+      </c>
+      <c r="HW12" t="n">
         <v>3273.0</v>
       </c>
-      <c r="GH12" t="n">
-        <v>5462.0</v>
-      </c>
-      <c r="GI12" t="n">
-        <v>8714.0</v>
-      </c>
-      <c r="GJ12" t="n">
-        <v>8552.0</v>
-      </c>
-      <c r="GK12" t="n">
-        <v>2466.0</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>5908.0</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>3498.0</v>
-      </c>
-      <c r="GN12" t="n">
-        <v>5726.0</v>
-      </c>
-      <c r="GO12" t="n">
-        <v>8374.0</v>
-      </c>
-      <c r="GP12" t="n">
-        <v>823.0</v>
-      </c>
-      <c r="GQ12" t="n">
-        <v>462.0</v>
-      </c>
-      <c r="GR12" t="n">
-        <v>6705.0</v>
-      </c>
-      <c r="GS12" t="n">
-        <v>2281.0</v>
-      </c>
-      <c r="GT12" t="n">
-        <v>5445.0</v>
-      </c>
-      <c r="GU12" t="n">
-        <v>8149.0</v>
-      </c>
-      <c r="GV12" t="n">
-        <v>5020.0</v>
-      </c>
-      <c r="GW12" t="n">
-        <v>3043.0</v>
-      </c>
-      <c r="GX12" t="n">
-        <v>441.0</v>
-      </c>
-      <c r="GY12" t="n">
-        <v>1852.0</v>
-      </c>
-      <c r="GZ12" t="n">
-        <v>9025.0</v>
-      </c>
-      <c r="HA12" t="n">
-        <v>9528.0</v>
-      </c>
-      <c r="HB12" t="n">
-        <v>7787.0</v>
-      </c>
-      <c r="HC12" t="n">
-        <v>9467.0</v>
-      </c>
-      <c r="HD12" t="n">
-        <v>6405.0</v>
-      </c>
-      <c r="HE12" t="n">
-        <v>3544.0</v>
-      </c>
-      <c r="HF12" t="n">
-        <v>7594.0</v>
-      </c>
-      <c r="HG12" t="n">
-        <v>461.0</v>
-      </c>
-      <c r="HH12" t="n">
-        <v>6033.0</v>
-      </c>
-      <c r="HI12" t="n">
-        <v>8465.0</v>
-      </c>
-      <c r="HJ12" t="n">
-        <v>3166.0</v>
-      </c>
-      <c r="HK12" t="n">
-        <v>7175.0</v>
-      </c>
-      <c r="HL12" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="HM12" t="n">
-        <v>678.0</v>
-      </c>
-      <c r="HN12" t="n">
-        <v>2656.0</v>
-      </c>
-      <c r="HO12" t="n">
-        <v>8607.0</v>
-      </c>
-      <c r="HP12" t="n">
-        <v>7279.0</v>
-      </c>
-      <c r="HQ12" t="n">
-        <v>3275.0</v>
-      </c>
-      <c r="HR12" t="n">
-        <v>9653.0</v>
-      </c>
-      <c r="HS12" t="n">
-        <v>2959.0</v>
-      </c>
-      <c r="HT12" t="n">
-        <v>1143.0</v>
-      </c>
-      <c r="HU12" t="n">
-        <v>4009.0</v>
-      </c>
-      <c r="HV12" t="n">
-        <v>1707.0</v>
-      </c>
-      <c r="HW12" t="n">
-        <v>6744.0</v>
-      </c>
       <c r="HX12" t="n">
-        <v>1214.0</v>
+        <v>3820.0</v>
       </c>
       <c r="HY12" t="n">
-        <v>2402.0</v>
+        <v>4553.0</v>
       </c>
       <c r="HZ12" t="n">
-        <v>5369.0</v>
+        <v>7661.0</v>
       </c>
       <c r="IA12" t="n">
-        <v>5052.0</v>
+        <v>4380.0</v>
       </c>
       <c r="IB12" t="n">
-        <v>7103.0</v>
+        <v>949.0</v>
       </c>
       <c r="IC12" t="n">
-        <v>4139.0</v>
+        <v>1623.0</v>
       </c>
       <c r="ID12" t="n">
-        <v>8686.0</v>
+        <v>1135.0</v>
       </c>
       <c r="IE12" t="n">
-        <v>9694.0</v>
+        <v>4280.0</v>
       </c>
       <c r="IF12" t="n">
-        <v>5018.0</v>
+        <v>9587.0</v>
       </c>
       <c r="IG12" t="n">
-        <v>4392.0</v>
+        <v>1941.0</v>
       </c>
       <c r="IH12" t="n">
-        <v>7218.0</v>
+        <v>3131.0</v>
       </c>
       <c r="II12" t="n">
-        <v>9384.0</v>
+        <v>1541.0</v>
       </c>
       <c r="IJ12" t="n">
-        <v>574.0</v>
-      </c>
-      <c r="IK12" t="n">
-        <v>5555.0</v>
-      </c>
-      <c r="IL12" t="n">
-        <v>7673.0</v>
-      </c>
-      <c r="IM12" t="n">
-        <v>8838.0</v>
-      </c>
-      <c r="IN12" t="n">
-        <v>6602.0</v>
-      </c>
-      <c r="IO12" t="n">
-        <v>9021.0</v>
-      </c>
-      <c r="IP12" t="n">
-        <v>3999.0</v>
-      </c>
-      <c r="IQ12" t="n">
-        <v>1753.0</v>
-      </c>
-      <c r="IR12" t="n">
-        <v>1632.0</v>
-      </c>
-      <c r="IS12" t="n">
-        <v>5109.0</v>
-      </c>
-      <c r="IT12" t="n">
-        <v>4416.0</v>
-      </c>
-      <c r="IU12" t="n">
-        <v>5979.0</v>
-      </c>
-      <c r="IV12" t="n">
-        <v>3517.0</v>
-      </c>
-      <c r="IW12" t="n">
-        <v>9997.0</v>
+        <v>2406.0</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="207">
   <si>
     <t>Количество критериев:</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Размерность вершин I[i] (через запятую):</t>
   </si>
   <si>
-    <t>4,3,4</t>
+    <t>3,4,3,4</t>
   </si>
   <si>
     <t>Веса:</t>
@@ -44,6 +44,9 @@
     <t>1 1 3</t>
   </si>
   <si>
+    <t>1 1 4</t>
+  </si>
+  <si>
     <t>1 2 1</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>1 2 3</t>
   </si>
   <si>
+    <t>1 2 4</t>
+  </si>
+  <si>
     <t>1 3 1</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>1 3 3</t>
   </si>
   <si>
+    <t>1 3 4</t>
+  </si>
+  <si>
     <t>1 4 1</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t>1 4 3</t>
   </si>
   <si>
+    <t>1 4 4</t>
+  </si>
+  <si>
     <t>1 5 1</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
     <t>1 5 3</t>
   </si>
   <si>
+    <t>1 5 4</t>
+  </si>
+  <si>
     <t>1 6 1</t>
   </si>
   <si>
@@ -89,6 +104,9 @@
     <t>1 6 3</t>
   </si>
   <si>
+    <t>1 6 4</t>
+  </si>
+  <si>
     <t>1 7 1</t>
   </si>
   <si>
@@ -98,22 +116,7 @@
     <t>1 7 3</t>
   </si>
   <si>
-    <t>1 8 1</t>
-  </si>
-  <si>
-    <t>1 8 2</t>
-  </si>
-  <si>
-    <t>1 8 3</t>
-  </si>
-  <si>
-    <t>1 9 1</t>
-  </si>
-  <si>
-    <t>1 9 2</t>
-  </si>
-  <si>
-    <t>1 9 3</t>
+    <t>1 7 4</t>
   </si>
   <si>
     <t>2 1 1</t>
@@ -125,6 +128,9 @@
     <t>2 1 3</t>
   </si>
   <si>
+    <t>2 1 4</t>
+  </si>
+  <si>
     <t>2 2 1</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
     <t>2 2 3</t>
   </si>
   <si>
+    <t>2 2 4</t>
+  </si>
+  <si>
     <t>2 3 1</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t>2 3 3</t>
   </si>
   <si>
+    <t>2 3 4</t>
+  </si>
+  <si>
     <t>2 4 1</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>2 4 3</t>
   </si>
   <si>
+    <t>2 4 4</t>
+  </si>
+  <si>
     <t>2 5 1</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
     <t>2 5 3</t>
   </si>
   <si>
+    <t>2 5 4</t>
+  </si>
+  <si>
     <t>2 6 1</t>
   </si>
   <si>
@@ -170,6 +188,9 @@
     <t>2 6 3</t>
   </si>
   <si>
+    <t>2 6 4</t>
+  </si>
+  <si>
     <t>2 7 1</t>
   </si>
   <si>
@@ -179,22 +200,7 @@
     <t>2 7 3</t>
   </si>
   <si>
-    <t>2 8 1</t>
-  </si>
-  <si>
-    <t>2 8 2</t>
-  </si>
-  <si>
-    <t>2 8 3</t>
-  </si>
-  <si>
-    <t>2 9 1</t>
-  </si>
-  <si>
-    <t>2 9 2</t>
-  </si>
-  <si>
-    <t>2 9 3</t>
+    <t>2 7 4</t>
   </si>
   <si>
     <t>3 1 1</t>
@@ -206,6 +212,9 @@
     <t>3 1 3</t>
   </si>
   <si>
+    <t>3 1 4</t>
+  </si>
+  <si>
     <t>3 2 1</t>
   </si>
   <si>
@@ -215,6 +224,9 @@
     <t>3 2 3</t>
   </si>
   <si>
+    <t>3 2 4</t>
+  </si>
+  <si>
     <t>3 3 1</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
     <t>3 3 3</t>
   </si>
   <si>
+    <t>3 3 4</t>
+  </si>
+  <si>
     <t>3 4 1</t>
   </si>
   <si>
@@ -233,6 +248,9 @@
     <t>3 4 3</t>
   </si>
   <si>
+    <t>3 4 4</t>
+  </si>
+  <si>
     <t>3 5 1</t>
   </si>
   <si>
@@ -242,6 +260,9 @@
     <t>3 5 3</t>
   </si>
   <si>
+    <t>3 5 4</t>
+  </si>
+  <si>
     <t>3 6 1</t>
   </si>
   <si>
@@ -251,6 +272,9 @@
     <t>3 6 3</t>
   </si>
   <si>
+    <t>3 6 4</t>
+  </si>
+  <si>
     <t>3 7 1</t>
   </si>
   <si>
@@ -260,22 +284,7 @@
     <t>3 7 3</t>
   </si>
   <si>
-    <t>3 8 1</t>
-  </si>
-  <si>
-    <t>3 8 2</t>
-  </si>
-  <si>
-    <t>3 8 3</t>
-  </si>
-  <si>
-    <t>3 9 1</t>
-  </si>
-  <si>
-    <t>3 9 2</t>
-  </si>
-  <si>
-    <t>3 9 3</t>
+    <t>3 7 4</t>
   </si>
   <si>
     <t>4 1 1</t>
@@ -287,6 +296,9 @@
     <t>4 1 3</t>
   </si>
   <si>
+    <t>4 1 4</t>
+  </si>
+  <si>
     <t>4 2 1</t>
   </si>
   <si>
@@ -296,6 +308,9 @@
     <t>4 2 3</t>
   </si>
   <si>
+    <t>4 2 4</t>
+  </si>
+  <si>
     <t>4 3 1</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
     <t>4 3 3</t>
   </si>
   <si>
+    <t>4 3 4</t>
+  </si>
+  <si>
     <t>4 4 1</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>4 4 3</t>
   </si>
   <si>
+    <t>4 4 4</t>
+  </si>
+  <si>
     <t>4 5 1</t>
   </si>
   <si>
@@ -323,6 +344,9 @@
     <t>4 5 3</t>
   </si>
   <si>
+    <t>4 5 4</t>
+  </si>
+  <si>
     <t>4 6 1</t>
   </si>
   <si>
@@ -332,6 +356,9 @@
     <t>4 6 3</t>
   </si>
   <si>
+    <t>4 6 4</t>
+  </si>
+  <si>
     <t>4 7 1</t>
   </si>
   <si>
@@ -341,22 +368,7 @@
     <t>4 7 3</t>
   </si>
   <si>
-    <t>4 8 1</t>
-  </si>
-  <si>
-    <t>4 8 2</t>
-  </si>
-  <si>
-    <t>4 8 3</t>
-  </si>
-  <si>
-    <t>4 9 1</t>
-  </si>
-  <si>
-    <t>4 9 2</t>
-  </si>
-  <si>
-    <t>4 9 3</t>
+    <t>4 7 4</t>
   </si>
   <si>
     <t>5 1 1</t>
@@ -368,6 +380,9 @@
     <t>5 1 3</t>
   </si>
   <si>
+    <t>5 1 4</t>
+  </si>
+  <si>
     <t>5 2 1</t>
   </si>
   <si>
@@ -377,6 +392,9 @@
     <t>5 2 3</t>
   </si>
   <si>
+    <t>5 2 4</t>
+  </si>
+  <si>
     <t>5 3 1</t>
   </si>
   <si>
@@ -386,6 +404,9 @@
     <t>5 3 3</t>
   </si>
   <si>
+    <t>5 3 4</t>
+  </si>
+  <si>
     <t>5 4 1</t>
   </si>
   <si>
@@ -395,6 +416,9 @@
     <t>5 4 3</t>
   </si>
   <si>
+    <t>5 4 4</t>
+  </si>
+  <si>
     <t>5 5 1</t>
   </si>
   <si>
@@ -404,6 +428,9 @@
     <t>5 5 3</t>
   </si>
   <si>
+    <t>5 5 4</t>
+  </si>
+  <si>
     <t>5 6 1</t>
   </si>
   <si>
@@ -413,6 +440,9 @@
     <t>5 6 3</t>
   </si>
   <si>
+    <t>5 6 4</t>
+  </si>
+  <si>
     <t>5 7 1</t>
   </si>
   <si>
@@ -422,22 +452,7 @@
     <t>5 7 3</t>
   </si>
   <si>
-    <t>5 8 1</t>
-  </si>
-  <si>
-    <t>5 8 2</t>
-  </si>
-  <si>
-    <t>5 8 3</t>
-  </si>
-  <si>
-    <t>5 9 1</t>
-  </si>
-  <si>
-    <t>5 9 2</t>
-  </si>
-  <si>
-    <t>5 9 3</t>
+    <t>5 7 4</t>
   </si>
   <si>
     <t>6 1 1</t>
@@ -449,6 +464,9 @@
     <t>6 1 3</t>
   </si>
   <si>
+    <t>6 1 4</t>
+  </si>
+  <si>
     <t>6 2 1</t>
   </si>
   <si>
@@ -458,6 +476,9 @@
     <t>6 2 3</t>
   </si>
   <si>
+    <t>6 2 4</t>
+  </si>
+  <si>
     <t>6 3 1</t>
   </si>
   <si>
@@ -467,6 +488,9 @@
     <t>6 3 3</t>
   </si>
   <si>
+    <t>6 3 4</t>
+  </si>
+  <si>
     <t>6 4 1</t>
   </si>
   <si>
@@ -476,6 +500,9 @@
     <t>6 4 3</t>
   </si>
   <si>
+    <t>6 4 4</t>
+  </si>
+  <si>
     <t>6 5 1</t>
   </si>
   <si>
@@ -485,6 +512,9 @@
     <t>6 5 3</t>
   </si>
   <si>
+    <t>6 5 4</t>
+  </si>
+  <si>
     <t>6 6 1</t>
   </si>
   <si>
@@ -494,6 +524,9 @@
     <t>6 6 3</t>
   </si>
   <si>
+    <t>6 6 4</t>
+  </si>
+  <si>
     <t>6 7 1</t>
   </si>
   <si>
@@ -503,22 +536,7 @@
     <t>6 7 3</t>
   </si>
   <si>
-    <t>6 8 1</t>
-  </si>
-  <si>
-    <t>6 8 2</t>
-  </si>
-  <si>
-    <t>6 8 3</t>
-  </si>
-  <si>
-    <t>6 9 1</t>
-  </si>
-  <si>
-    <t>6 9 2</t>
-  </si>
-  <si>
-    <t>6 9 3</t>
+    <t>6 7 4</t>
   </si>
   <si>
     <t>7 1 1</t>
@@ -530,6 +548,9 @@
     <t>7 1 3</t>
   </si>
   <si>
+    <t>7 1 4</t>
+  </si>
+  <si>
     <t>7 2 1</t>
   </si>
   <si>
@@ -539,6 +560,9 @@
     <t>7 2 3</t>
   </si>
   <si>
+    <t>7 2 4</t>
+  </si>
+  <si>
     <t>7 3 1</t>
   </si>
   <si>
@@ -548,6 +572,9 @@
     <t>7 3 3</t>
   </si>
   <si>
+    <t>7 3 4</t>
+  </si>
+  <si>
     <t>7 4 1</t>
   </si>
   <si>
@@ -557,6 +584,9 @@
     <t>7 4 3</t>
   </si>
   <si>
+    <t>7 4 4</t>
+  </si>
+  <si>
     <t>7 5 1</t>
   </si>
   <si>
@@ -566,6 +596,9 @@
     <t>7 5 3</t>
   </si>
   <si>
+    <t>7 5 4</t>
+  </si>
+  <si>
     <t>7 6 1</t>
   </si>
   <si>
@@ -575,6 +608,9 @@
     <t>7 6 3</t>
   </si>
   <si>
+    <t>7 6 4</t>
+  </si>
+  <si>
     <t>7 7 1</t>
   </si>
   <si>
@@ -584,190 +620,19 @@
     <t>7 7 3</t>
   </si>
   <si>
-    <t>7 8 1</t>
-  </si>
-  <si>
-    <t>7 8 2</t>
-  </si>
-  <si>
-    <t>7 8 3</t>
-  </si>
-  <si>
-    <t>7 9 1</t>
-  </si>
-  <si>
-    <t>7 9 2</t>
-  </si>
-  <si>
-    <t>7 9 3</t>
-  </si>
-  <si>
-    <t>8 1 1</t>
-  </si>
-  <si>
-    <t>8 1 2</t>
-  </si>
-  <si>
-    <t>8 1 3</t>
-  </si>
-  <si>
-    <t>8 2 1</t>
-  </si>
-  <si>
-    <t>8 2 2</t>
-  </si>
-  <si>
-    <t>8 2 3</t>
-  </si>
-  <si>
-    <t>8 3 1</t>
-  </si>
-  <si>
-    <t>8 3 2</t>
-  </si>
-  <si>
-    <t>8 3 3</t>
-  </si>
-  <si>
-    <t>8 4 1</t>
-  </si>
-  <si>
-    <t>8 4 2</t>
-  </si>
-  <si>
-    <t>8 4 3</t>
-  </si>
-  <si>
-    <t>8 5 1</t>
-  </si>
-  <si>
-    <t>8 5 2</t>
-  </si>
-  <si>
-    <t>8 5 3</t>
-  </si>
-  <si>
-    <t>8 6 1</t>
-  </si>
-  <si>
-    <t>8 6 2</t>
-  </si>
-  <si>
-    <t>8 6 3</t>
-  </si>
-  <si>
-    <t>8 7 1</t>
-  </si>
-  <si>
-    <t>8 7 2</t>
-  </si>
-  <si>
-    <t>8 7 3</t>
-  </si>
-  <si>
-    <t>8 8 1</t>
-  </si>
-  <si>
-    <t>8 8 2</t>
-  </si>
-  <si>
-    <t>8 8 3</t>
-  </si>
-  <si>
-    <t>8 9 1</t>
-  </si>
-  <si>
-    <t>8 9 2</t>
-  </si>
-  <si>
-    <t>8 9 3</t>
-  </si>
-  <si>
-    <t>9 1 1</t>
-  </si>
-  <si>
-    <t>9 1 2</t>
-  </si>
-  <si>
-    <t>9 1 3</t>
-  </si>
-  <si>
-    <t>9 2 1</t>
-  </si>
-  <si>
-    <t>9 2 2</t>
-  </si>
-  <si>
-    <t>9 2 3</t>
-  </si>
-  <si>
-    <t>9 3 1</t>
-  </si>
-  <si>
-    <t>9 3 2</t>
-  </si>
-  <si>
-    <t>9 3 3</t>
-  </si>
-  <si>
-    <t>9 4 1</t>
-  </si>
-  <si>
-    <t>9 4 2</t>
-  </si>
-  <si>
-    <t>9 4 3</t>
-  </si>
-  <si>
-    <t>9 5 1</t>
-  </si>
-  <si>
-    <t>9 5 2</t>
-  </si>
-  <si>
-    <t>9 5 3</t>
-  </si>
-  <si>
-    <t>9 6 1</t>
-  </si>
-  <si>
-    <t>9 6 2</t>
-  </si>
-  <si>
-    <t>9 6 3</t>
-  </si>
-  <si>
-    <t>9 7 1</t>
-  </si>
-  <si>
-    <t>9 7 2</t>
-  </si>
-  <si>
-    <t>9 7 3</t>
-  </si>
-  <si>
-    <t>9 8 1</t>
-  </si>
-  <si>
-    <t>9 8 2</t>
-  </si>
-  <si>
-    <t>9 8 3</t>
-  </si>
-  <si>
-    <t>9 9 1</t>
-  </si>
-  <si>
-    <t>9 9 2</t>
-  </si>
-  <si>
-    <t>9 9 3</t>
+    <t>7 7 4</t>
   </si>
   <si>
     <t>Критерий №2</t>
   </si>
   <si>
     <t>Критерий №3</t>
+  </si>
+  <si>
+    <t>Критерий №4</t>
+  </si>
+  <si>
+    <t>Критерий №5</t>
   </si>
 </sst>
 </file>
@@ -812,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:IJ12"/>
+  <dimension ref="A1:GO18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -823,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="2">
@@ -831,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -839,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1442,885 +1307,603 @@
       <c r="GO5" t="s">
         <v>202</v>
       </c>
-      <c r="GP5" t="s">
-        <v>203</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>204</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>205</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>206</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>207</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>208</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>209</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>210</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>211</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>212</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>213</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>214</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>215</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>216</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>217</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>218</v>
-      </c>
-      <c r="HF5" t="s">
-        <v>219</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>220</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>223</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM5" t="s">
-        <v>226</v>
-      </c>
-      <c r="HN5" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO5" t="s">
-        <v>228</v>
-      </c>
-      <c r="HP5" t="s">
-        <v>229</v>
-      </c>
-      <c r="HQ5" t="s">
-        <v>230</v>
-      </c>
-      <c r="HR5" t="s">
-        <v>231</v>
-      </c>
-      <c r="HS5" t="s">
-        <v>232</v>
-      </c>
-      <c r="HT5" t="s">
-        <v>233</v>
-      </c>
-      <c r="HU5" t="s">
-        <v>234</v>
-      </c>
-      <c r="HV5" t="s">
-        <v>235</v>
-      </c>
-      <c r="HW5" t="s">
-        <v>236</v>
-      </c>
-      <c r="HX5" t="s">
-        <v>237</v>
-      </c>
-      <c r="HY5" t="s">
-        <v>238</v>
-      </c>
-      <c r="HZ5" t="s">
-        <v>239</v>
-      </c>
-      <c r="IA5" t="s">
-        <v>240</v>
-      </c>
-      <c r="IB5" t="s">
-        <v>241</v>
-      </c>
-      <c r="IC5" t="s">
-        <v>242</v>
-      </c>
-      <c r="ID5" t="s">
-        <v>243</v>
-      </c>
-      <c r="IE5" t="s">
-        <v>244</v>
-      </c>
-      <c r="IF5" t="s">
-        <v>245</v>
-      </c>
-      <c r="IG5" t="s">
-        <v>246</v>
-      </c>
-      <c r="IH5" t="s">
-        <v>247</v>
-      </c>
-      <c r="II5" t="s">
-        <v>248</v>
-      </c>
-      <c r="IJ5" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7443.0</v>
+        <v>3530.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1548.0</v>
+        <v>3939.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3529.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E6" t="n">
-        <v>9594.0</v>
+        <v>5657.0</v>
       </c>
       <c r="F6" t="n">
-        <v>6019.0</v>
+        <v>229.0</v>
       </c>
       <c r="G6" t="n">
-        <v>3243.0</v>
+        <v>7620.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2858.0</v>
+        <v>3509.0</v>
       </c>
       <c r="I6" t="n">
-        <v>3114.0</v>
+        <v>8735.0</v>
       </c>
       <c r="J6" t="n">
-        <v>6632.0</v>
+        <v>8496.0</v>
       </c>
       <c r="K6" t="n">
-        <v>2864.0</v>
+        <v>1679.0</v>
       </c>
       <c r="L6" t="n">
-        <v>8571.0</v>
+        <v>3234.0</v>
       </c>
       <c r="M6" t="n">
-        <v>6852.0</v>
+        <v>4125.0</v>
       </c>
       <c r="N6" t="n">
-        <v>833.0</v>
+        <v>7921.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3928.0</v>
+        <v>4841.0</v>
       </c>
       <c r="P6" t="n">
-        <v>4108.0</v>
+        <v>6766.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>5807.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6408.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4639.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9223.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6343.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5219.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7834.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8189.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5929.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3837.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6587.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9976.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4721.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2149.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8550.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5753.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6240.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>2285.0</v>
       </c>
-      <c r="R6" t="n">
-        <v>8287.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1720.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3316.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8104.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>6413.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9278.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8332.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3918.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1698.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1754.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6529.0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9745.0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3743.0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>8777.0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>4899.0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6815.0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>2783.0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9459.0</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>1238.0</v>
+        <v>8190.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>7901.0</v>
+        <v>7060.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>6276.0</v>
+        <v>3361.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>7514.0</v>
+        <v>3133.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>2854.0</v>
+        <v>474.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>841.0</v>
+        <v>8897.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>476.0</v>
+        <v>4134.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4576.0</v>
+        <v>9264.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>5172.0</v>
+        <v>9606.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>7233.0</v>
+        <v>6576.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>8396.0</v>
+        <v>6654.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>8273.0</v>
+        <v>3484.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>4558.0</v>
+        <v>4250.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>9376.0</v>
+        <v>6577.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>6485.0</v>
+        <v>1657.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>7858.0</v>
+        <v>4140.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1984.0</v>
+        <v>3209.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>2437.0</v>
+        <v>1292.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>8505.0</v>
+        <v>633.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>4277.0</v>
+        <v>9984.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>6704.0</v>
+        <v>7948.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>5576.0</v>
+        <v>3782.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>6572.0</v>
+        <v>5417.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>3431.0</v>
+        <v>8654.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>2066.0</v>
+        <v>4750.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>5283.0</v>
+        <v>1434.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6170.0</v>
+        <v>2446.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>1101.0</v>
+        <v>9663.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>8745.0</v>
+        <v>9876.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>6538.0</v>
+        <v>6772.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>4032.0</v>
+        <v>1199.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>5491.0</v>
+        <v>9123.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>4237.0</v>
+        <v>5626.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2570.0</v>
+        <v>9571.0</v>
       </c>
       <c r="BR6" t="n">
-        <v>5225.0</v>
+        <v>1645.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>8703.0</v>
+        <v>1419.0</v>
       </c>
       <c r="BT6" t="n">
-        <v>1291.0</v>
+        <v>3873.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>1988.0</v>
+        <v>6890.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>8530.0</v>
+        <v>22.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>1543.0</v>
+        <v>2516.0</v>
       </c>
       <c r="BX6" t="n">
-        <v>2094.0</v>
+        <v>6332.0</v>
       </c>
       <c r="BY6" t="n">
-        <v>2813.0</v>
+        <v>6694.0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>7250.0</v>
+        <v>5667.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>7060.0</v>
+        <v>656.0</v>
       </c>
       <c r="CB6" t="n">
-        <v>9491.0</v>
+        <v>7600.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>6576.0</v>
+        <v>6292.0</v>
       </c>
       <c r="CD6" t="n">
-        <v>5953.0</v>
+        <v>4263.0</v>
       </c>
       <c r="CE6" t="n">
-        <v>6927.0</v>
+        <v>2838.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>1314.0</v>
+        <v>7836.0</v>
       </c>
       <c r="CG6" t="n">
-        <v>2046.0</v>
+        <v>9038.0</v>
       </c>
       <c r="CH6" t="n">
-        <v>2344.0</v>
+        <v>4388.0</v>
       </c>
       <c r="CI6" t="n">
-        <v>1389.0</v>
+        <v>9648.0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>8951.0</v>
+        <v>6824.0</v>
       </c>
       <c r="CK6" t="n">
-        <v>7385.0</v>
+        <v>1383.0</v>
       </c>
       <c r="CL6" t="n">
-        <v>7450.0</v>
+        <v>4992.0</v>
       </c>
       <c r="CM6" t="n">
-        <v>7851.0</v>
+        <v>6769.0</v>
       </c>
       <c r="CN6" t="n">
-        <v>6706.0</v>
+        <v>152.0</v>
       </c>
       <c r="CO6" t="n">
-        <v>1569.0</v>
+        <v>7727.0</v>
       </c>
       <c r="CP6" t="n">
-        <v>6601.0</v>
+        <v>1138.0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5417.0</v>
+        <v>8815.0</v>
       </c>
       <c r="CR6" t="n">
-        <v>4231.0</v>
+        <v>1212.0</v>
       </c>
       <c r="CS6" t="n">
-        <v>762.0</v>
+        <v>2308.0</v>
       </c>
       <c r="CT6" t="n">
-        <v>8327.0</v>
+        <v>4132.0</v>
       </c>
       <c r="CU6" t="n">
-        <v>2651.0</v>
+        <v>2.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>282.0</v>
+        <v>9857.0</v>
       </c>
       <c r="CW6" t="n">
-        <v>3008.0</v>
+        <v>5806.0</v>
       </c>
       <c r="CX6" t="n">
-        <v>8204.0</v>
+        <v>54.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>3698.0</v>
+        <v>6615.0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2454.0</v>
+        <v>9641.0</v>
       </c>
       <c r="DA6" t="n">
-        <v>5067.0</v>
+        <v>9299.0</v>
       </c>
       <c r="DB6" t="n">
-        <v>9943.0</v>
+        <v>7603.0</v>
       </c>
       <c r="DC6" t="n">
-        <v>3517.0</v>
+        <v>8233.0</v>
       </c>
       <c r="DD6" t="n">
-        <v>4156.0</v>
+        <v>818.0</v>
       </c>
       <c r="DE6" t="n">
-        <v>8529.0</v>
+        <v>9739.0</v>
       </c>
       <c r="DF6" t="n">
-        <v>6551.0</v>
+        <v>2162.0</v>
       </c>
       <c r="DG6" t="n">
-        <v>6423.0</v>
+        <v>8235.0</v>
       </c>
       <c r="DH6" t="n">
-        <v>7060.0</v>
+        <v>5524.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>8438.0</v>
+        <v>9214.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>295.0</v>
+        <v>8058.0</v>
       </c>
       <c r="DK6" t="n">
-        <v>3402.0</v>
+        <v>9238.0</v>
       </c>
       <c r="DL6" t="n">
-        <v>4550.0</v>
+        <v>4878.0</v>
       </c>
       <c r="DM6" t="n">
-        <v>6558.0</v>
+        <v>4935.0</v>
       </c>
       <c r="DN6" t="n">
-        <v>1334.0</v>
+        <v>5057.0</v>
       </c>
       <c r="DO6" t="n">
-        <v>2734.0</v>
+        <v>5798.0</v>
       </c>
       <c r="DP6" t="n">
-        <v>9258.0</v>
+        <v>5177.0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>3180.0</v>
+        <v>8070.0</v>
       </c>
       <c r="DR6" t="n">
-        <v>1439.0</v>
+        <v>8362.0</v>
       </c>
       <c r="DS6" t="n">
-        <v>5344.0</v>
+        <v>4991.0</v>
       </c>
       <c r="DT6" t="n">
-        <v>5698.0</v>
+        <v>1767.0</v>
       </c>
       <c r="DU6" t="n">
-        <v>5861.0</v>
+        <v>7378.0</v>
       </c>
       <c r="DV6" t="n">
-        <v>967.0</v>
+        <v>3579.0</v>
       </c>
       <c r="DW6" t="n">
-        <v>992.0</v>
+        <v>5249.0</v>
       </c>
       <c r="DX6" t="n">
-        <v>7208.0</v>
+        <v>4715.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>880.0</v>
+        <v>7905.0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>4417.0</v>
+        <v>9431.0</v>
       </c>
       <c r="EA6" t="n">
-        <v>3929.0</v>
+        <v>5263.0</v>
       </c>
       <c r="EB6" t="n">
-        <v>4939.0</v>
+        <v>9994.0</v>
       </c>
       <c r="EC6" t="n">
-        <v>3342.0</v>
+        <v>5925.0</v>
       </c>
       <c r="ED6" t="n">
-        <v>2306.0</v>
+        <v>1361.0</v>
       </c>
       <c r="EE6" t="n">
-        <v>6982.0</v>
+        <v>7651.0</v>
       </c>
       <c r="EF6" t="n">
-        <v>5470.0</v>
+        <v>3499.0</v>
       </c>
       <c r="EG6" t="n">
-        <v>4843.0</v>
+        <v>8788.0</v>
       </c>
       <c r="EH6" t="n">
-        <v>4855.0</v>
+        <v>8582.0</v>
       </c>
       <c r="EI6" t="n">
-        <v>1116.0</v>
+        <v>6645.0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2779.0</v>
+        <v>2974.0</v>
       </c>
       <c r="EK6" t="n">
-        <v>3399.0</v>
+        <v>2353.0</v>
       </c>
       <c r="EL6" t="n">
-        <v>6038.0</v>
+        <v>5630.0</v>
       </c>
       <c r="EM6" t="n">
-        <v>3547.0</v>
+        <v>5056.0</v>
       </c>
       <c r="EN6" t="n">
-        <v>9758.0</v>
+        <v>4633.0</v>
       </c>
       <c r="EO6" t="n">
-        <v>8956.0</v>
+        <v>9292.0</v>
       </c>
       <c r="EP6" t="n">
-        <v>4891.0</v>
+        <v>7008.0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1157.0</v>
+        <v>3454.0</v>
       </c>
       <c r="ER6" t="n">
-        <v>4231.0</v>
+        <v>7149.0</v>
       </c>
       <c r="ES6" t="n">
-        <v>9192.0</v>
+        <v>8712.0</v>
       </c>
       <c r="ET6" t="n">
-        <v>4694.0</v>
+        <v>144.0</v>
       </c>
       <c r="EU6" t="n">
-        <v>7603.0</v>
+        <v>3667.0</v>
       </c>
       <c r="EV6" t="n">
-        <v>4548.0</v>
+        <v>5526.0</v>
       </c>
       <c r="EW6" t="n">
-        <v>4579.0</v>
+        <v>1246.0</v>
       </c>
       <c r="EX6" t="n">
-        <v>9606.0</v>
+        <v>7526.0</v>
       </c>
       <c r="EY6" t="n">
-        <v>1839.0</v>
+        <v>9446.0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>193.0</v>
+        <v>1366.0</v>
       </c>
       <c r="FA6" t="n">
-        <v>8683.0</v>
+        <v>4065.0</v>
       </c>
       <c r="FB6" t="n">
-        <v>2659.0</v>
+        <v>3655.0</v>
       </c>
       <c r="FC6" t="n">
-        <v>3029.0</v>
+        <v>9479.0</v>
       </c>
       <c r="FD6" t="n">
-        <v>3571.0</v>
+        <v>4025.0</v>
       </c>
       <c r="FE6" t="n">
-        <v>9566.0</v>
+        <v>7100.0</v>
       </c>
       <c r="FF6" t="n">
-        <v>8613.0</v>
+        <v>6218.0</v>
       </c>
       <c r="FG6" t="n">
-        <v>1766.0</v>
+        <v>1800.0</v>
       </c>
       <c r="FH6" t="n">
-        <v>187.0</v>
+        <v>9264.0</v>
       </c>
       <c r="FI6" t="n">
-        <v>790.0</v>
+        <v>5176.0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>132.0</v>
+        <v>3769.0</v>
       </c>
       <c r="FK6" t="n">
-        <v>406.0</v>
+        <v>4084.0</v>
       </c>
       <c r="FL6" t="n">
-        <v>5724.0</v>
+        <v>8118.0</v>
       </c>
       <c r="FM6" t="n">
-        <v>6020.0</v>
+        <v>716.0</v>
       </c>
       <c r="FN6" t="n">
-        <v>5971.0</v>
+        <v>4115.0</v>
       </c>
       <c r="FO6" t="n">
-        <v>5912.0</v>
+        <v>1311.0</v>
       </c>
       <c r="FP6" t="n">
-        <v>217.0</v>
+        <v>8926.0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>9513.0</v>
+        <v>8234.0</v>
       </c>
       <c r="FR6" t="n">
-        <v>5415.0</v>
+        <v>8600.0</v>
       </c>
       <c r="FS6" t="n">
-        <v>7070.0</v>
+        <v>862.0</v>
       </c>
       <c r="FT6" t="n">
-        <v>1456.0</v>
+        <v>9729.0</v>
       </c>
       <c r="FU6" t="n">
-        <v>5875.0</v>
+        <v>4900.0</v>
       </c>
       <c r="FV6" t="n">
-        <v>4094.0</v>
+        <v>7532.0</v>
       </c>
       <c r="FW6" t="n">
-        <v>4185.0</v>
+        <v>5231.0</v>
       </c>
       <c r="FX6" t="n">
-        <v>2052.0</v>
+        <v>6566.0</v>
       </c>
       <c r="FY6" t="n">
-        <v>6381.0</v>
+        <v>1151.0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2474.0</v>
+        <v>1084.0</v>
       </c>
       <c r="GA6" t="n">
-        <v>3475.0</v>
+        <v>4217.0</v>
       </c>
       <c r="GB6" t="n">
-        <v>7150.0</v>
+        <v>5605.0</v>
       </c>
       <c r="GC6" t="n">
-        <v>5915.0</v>
+        <v>1504.0</v>
       </c>
       <c r="GD6" t="n">
-        <v>9809.0</v>
+        <v>8215.0</v>
       </c>
       <c r="GE6" t="n">
-        <v>199.0</v>
+        <v>1721.0</v>
       </c>
       <c r="GF6" t="n">
-        <v>2725.0</v>
+        <v>3490.0</v>
       </c>
       <c r="GG6" t="n">
-        <v>4066.0</v>
+        <v>8547.0</v>
       </c>
       <c r="GH6" t="n">
-        <v>3166.0</v>
+        <v>3353.0</v>
       </c>
       <c r="GI6" t="n">
-        <v>4326.0</v>
+        <v>7093.0</v>
       </c>
       <c r="GJ6" t="n">
-        <v>7552.0</v>
+        <v>800.0</v>
       </c>
       <c r="GK6" t="n">
-        <v>6334.0</v>
+        <v>2414.0</v>
       </c>
       <c r="GL6" t="n">
-        <v>3232.0</v>
+        <v>6909.0</v>
       </c>
       <c r="GM6" t="n">
-        <v>8.0</v>
+        <v>7336.0</v>
       </c>
       <c r="GN6" t="n">
-        <v>5525.0</v>
+        <v>8109.0</v>
       </c>
       <c r="GO6" t="n">
-        <v>6527.0</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>6057.0</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>5464.0</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>8779.0</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>9419.0</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>2630.0</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>3019.0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>6278.0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>3530.0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>6238.0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>9983.0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>6946.0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>7492.0</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>925.0</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>9807.0</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>1214.0</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>9889.0</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>3062.0</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>9552.0</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>9962.0</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>1671.0</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>4057.0</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>5189.0</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>2294.0</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>5208.0</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>9418.0</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>2511.0</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>5593.0</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>7548.0</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>8377.0</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>1569.0</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>9060.0</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>4984.0</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>8069.0</v>
-      </c>
-      <c r="HX6" t="n">
-        <v>6784.0</v>
-      </c>
-      <c r="HY6" t="n">
-        <v>664.0</v>
-      </c>
-      <c r="HZ6" t="n">
-        <v>7378.0</v>
-      </c>
-      <c r="IA6" t="n">
-        <v>6178.0</v>
-      </c>
-      <c r="IB6" t="n">
-        <v>7562.0</v>
-      </c>
-      <c r="IC6" t="n">
-        <v>667.0</v>
-      </c>
-      <c r="ID6" t="n">
-        <v>6299.0</v>
-      </c>
-      <c r="IE6" t="n">
-        <v>5030.0</v>
-      </c>
-      <c r="IF6" t="n">
-        <v>3978.0</v>
-      </c>
-      <c r="IG6" t="n">
-        <v>1967.0</v>
-      </c>
-      <c r="IH6" t="n">
-        <v>9271.0</v>
-      </c>
-      <c r="II6" t="n">
-        <v>4384.0</v>
-      </c>
-      <c r="IJ6" t="n">
-        <v>1280.0</v>
+        <v>3949.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2909,147 +2492,6 @@
       </c>
       <c r="GO8" t="s">
         <v>202</v>
-      </c>
-      <c r="GP8" t="s">
-        <v>203</v>
-      </c>
-      <c r="GQ8" t="s">
-        <v>204</v>
-      </c>
-      <c r="GR8" t="s">
-        <v>205</v>
-      </c>
-      <c r="GS8" t="s">
-        <v>206</v>
-      </c>
-      <c r="GT8" t="s">
-        <v>207</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>208</v>
-      </c>
-      <c r="GV8" t="s">
-        <v>209</v>
-      </c>
-      <c r="GW8" t="s">
-        <v>210</v>
-      </c>
-      <c r="GX8" t="s">
-        <v>211</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>212</v>
-      </c>
-      <c r="GZ8" t="s">
-        <v>213</v>
-      </c>
-      <c r="HA8" t="s">
-        <v>214</v>
-      </c>
-      <c r="HB8" t="s">
-        <v>215</v>
-      </c>
-      <c r="HC8" t="s">
-        <v>216</v>
-      </c>
-      <c r="HD8" t="s">
-        <v>217</v>
-      </c>
-      <c r="HE8" t="s">
-        <v>218</v>
-      </c>
-      <c r="HF8" t="s">
-        <v>219</v>
-      </c>
-      <c r="HG8" t="s">
-        <v>220</v>
-      </c>
-      <c r="HH8" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI8" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ8" t="s">
-        <v>223</v>
-      </c>
-      <c r="HK8" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL8" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM8" t="s">
-        <v>226</v>
-      </c>
-      <c r="HN8" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO8" t="s">
-        <v>228</v>
-      </c>
-      <c r="HP8" t="s">
-        <v>229</v>
-      </c>
-      <c r="HQ8" t="s">
-        <v>230</v>
-      </c>
-      <c r="HR8" t="s">
-        <v>231</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>232</v>
-      </c>
-      <c r="HT8" t="s">
-        <v>233</v>
-      </c>
-      <c r="HU8" t="s">
-        <v>234</v>
-      </c>
-      <c r="HV8" t="s">
-        <v>235</v>
-      </c>
-      <c r="HW8" t="s">
-        <v>236</v>
-      </c>
-      <c r="HX8" t="s">
-        <v>237</v>
-      </c>
-      <c r="HY8" t="s">
-        <v>238</v>
-      </c>
-      <c r="HZ8" t="s">
-        <v>239</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>240</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>241</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>242</v>
-      </c>
-      <c r="ID8" t="s">
-        <v>243</v>
-      </c>
-      <c r="IE8" t="s">
-        <v>244</v>
-      </c>
-      <c r="IF8" t="s">
-        <v>245</v>
-      </c>
-      <c r="IG8" t="s">
-        <v>246</v>
-      </c>
-      <c r="IH8" t="s">
-        <v>247</v>
-      </c>
-      <c r="II8" t="s">
-        <v>248</v>
-      </c>
-      <c r="IJ8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -3057,738 +2499,597 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1429.0</v>
+        <v>1039.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3194.0</v>
+        <v>4427.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2778.0</v>
+        <v>2770.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4117.0</v>
+        <v>2248.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6405.0</v>
+        <v>6493.0</v>
       </c>
       <c r="G9" t="n">
-        <v>6113.0</v>
+        <v>1507.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4162.0</v>
+        <v>7245.0</v>
       </c>
       <c r="I9" t="n">
-        <v>9318.0</v>
+        <v>6307.0</v>
       </c>
       <c r="J9" t="n">
-        <v>5144.0</v>
+        <v>9895.0</v>
       </c>
       <c r="K9" t="n">
-        <v>8370.0</v>
+        <v>2764.0</v>
       </c>
       <c r="L9" t="n">
-        <v>1233.0</v>
+        <v>6586.0</v>
       </c>
       <c r="M9" t="n">
-        <v>4226.0</v>
+        <v>6073.0</v>
       </c>
       <c r="N9" t="n">
-        <v>7205.0</v>
+        <v>3311.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1237.0</v>
+        <v>4459.0</v>
       </c>
       <c r="P9" t="n">
-        <v>9430.0</v>
+        <v>3495.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6163.0</v>
+        <v>384.0</v>
       </c>
       <c r="R9" t="n">
-        <v>91.0</v>
+        <v>9620.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3609.0</v>
+        <v>8718.0</v>
       </c>
       <c r="T9" t="n">
-        <v>5829.0</v>
+        <v>4268.0</v>
       </c>
       <c r="U9" t="n">
-        <v>7401.0</v>
+        <v>7983.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1359.0</v>
+        <v>7834.0</v>
       </c>
       <c r="W9" t="n">
-        <v>5044.0</v>
+        <v>7507.0</v>
       </c>
       <c r="X9" t="n">
-        <v>5350.0</v>
+        <v>7917.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>9183.0</v>
+        <v>3087.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1201.0</v>
+        <v>2268.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>6512.0</v>
+        <v>1463.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>2611.0</v>
+        <v>3751.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>7806.0</v>
+        <v>8832.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>9127.0</v>
+        <v>8281.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>8584.0</v>
+        <v>7182.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1534.0</v>
+        <v>9782.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>5522.0</v>
+        <v>317.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>9786.0</v>
+        <v>5114.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>463.0</v>
+        <v>6976.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6368.0</v>
+        <v>5494.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>9154.0</v>
+        <v>3963.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>7187.0</v>
+        <v>3340.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>2262.0</v>
+        <v>7122.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>7207.0</v>
+        <v>7661.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>9665.0</v>
+        <v>1402.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>3638.0</v>
+        <v>379.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7240.0</v>
+        <v>4197.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>241.0</v>
+        <v>7235.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>6685.0</v>
+        <v>4244.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>9540.0</v>
+        <v>2606.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>325.0</v>
+        <v>4189.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>8023.0</v>
+        <v>8598.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>2978.0</v>
+        <v>692.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>2889.0</v>
+        <v>6680.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>4177.0</v>
+        <v>5828.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7821.0</v>
+        <v>9898.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>5209.0</v>
+        <v>6233.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>2772.0</v>
+        <v>5894.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>4305.0</v>
+        <v>7741.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>6797.0</v>
+        <v>4636.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>9000.0</v>
+        <v>8376.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>9456.0</v>
+        <v>9600.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>296.0</v>
+        <v>8947.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>1178.0</v>
+        <v>172.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>8225.0</v>
+        <v>9792.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>4776.0</v>
+        <v>5034.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>1076.0</v>
+        <v>3512.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>2842.0</v>
+        <v>8439.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>785.0</v>
+        <v>5095.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>432.0</v>
+        <v>1250.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>8331.0</v>
+        <v>3145.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>831.0</v>
+        <v>7746.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>5677.0</v>
+        <v>3971.0</v>
       </c>
       <c r="BR9" t="n">
-        <v>8530.0</v>
+        <v>4295.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>3685.0</v>
+        <v>6052.0</v>
       </c>
       <c r="BT9" t="n">
-        <v>7173.0</v>
+        <v>2287.0</v>
       </c>
       <c r="BU9" t="n">
-        <v>9077.0</v>
+        <v>7427.0</v>
       </c>
       <c r="BV9" t="n">
-        <v>8277.0</v>
+        <v>1213.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>2041.0</v>
+        <v>6367.0</v>
       </c>
       <c r="BX9" t="n">
-        <v>6103.0</v>
+        <v>7742.0</v>
       </c>
       <c r="BY9" t="n">
-        <v>376.0</v>
+        <v>4479.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5035.0</v>
+        <v>8072.0</v>
       </c>
       <c r="CA9" t="n">
-        <v>5635.0</v>
+        <v>6157.0</v>
       </c>
       <c r="CB9" t="n">
-        <v>3274.0</v>
+        <v>7176.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>2615.0</v>
+        <v>3807.0</v>
       </c>
       <c r="CD9" t="n">
-        <v>3162.0</v>
+        <v>3751.0</v>
       </c>
       <c r="CE9" t="n">
-        <v>742.0</v>
+        <v>1172.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>6868.0</v>
+        <v>1319.0</v>
       </c>
       <c r="CG9" t="n">
-        <v>5630.0</v>
+        <v>8575.0</v>
       </c>
       <c r="CH9" t="n">
-        <v>2017.0</v>
+        <v>6961.0</v>
       </c>
       <c r="CI9" t="n">
-        <v>1767.0</v>
+        <v>2246.0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5678.0</v>
+        <v>1313.0</v>
       </c>
       <c r="CK9" t="n">
-        <v>4343.0</v>
+        <v>2954.0</v>
       </c>
       <c r="CL9" t="n">
-        <v>5300.0</v>
+        <v>8658.0</v>
       </c>
       <c r="CM9" t="n">
+        <v>6594.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>9976.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>5674.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>5854.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>7124.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>9739.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>9379.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>5640.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>3294.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>1565.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>4519.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>4087.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>9339.0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>3038.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>4607.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>2215.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>8500.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>9072.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>8794.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>6017.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>2705.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>6763.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>9427.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>1196.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>6961.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>6086.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>5878.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>3271.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>5139.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>3863.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>2348.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>2229.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>4782.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>1713.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>3936.0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>4603.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>5540.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>5057.0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>9226.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>4817.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>7307.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>9358.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>9818.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>7069.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>2868.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>7004.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>6490.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>7749.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>2742.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>7912.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>2458.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>8894.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>8340.0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>6755.0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>7168.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>5948.0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>7447.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>7758.0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>4178.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>6832.0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>8281.0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>1478.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>5083.0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>4175.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>5399.0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>4096.0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>8959.0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>6977.0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>3929.0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>2947.0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>5157.0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>6595.0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>3139.0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>9713.0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>8904.0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>7650.0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>6296.0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>7273.0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>8586.0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>4175.0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>2513.0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>1316.0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>9461.0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>9878.0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>3517.0</v>
+      </c>
+      <c r="GD9" t="n">
         <v>5461.0</v>
       </c>
-      <c r="CN9" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>9113.0</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>7498.0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>1417.0</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>1074.0</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>9830.0</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>7647.0</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>3637.0</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>7496.0</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>526.0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>9819.0</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>9166.0</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>6677.0</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>1795.0</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>1766.0</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>1822.0</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>3080.0</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>8247.0</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>3734.0</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>3022.0</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>6213.0</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>2418.0</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>7930.0</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>4312.0</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>1340.0</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>735.0</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>8529.0</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>1130.0</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>1247.0</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>8139.0</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>8593.0</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>5254.0</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>475.0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>7963.0</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>8933.0</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>5887.0</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>6195.0</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>9141.0</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>6606.0</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>4540.0</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>4442.0</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>5246.0</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>5071.0</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>5753.0</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>8341.0</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>4394.0</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>9813.0</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>395.0</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>3158.0</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>6415.0</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>381.0</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>798.0</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>1546.0</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>3844.0</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>2195.0</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>7294.0</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>1185.0</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>6276.0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>9262.0</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>3860.0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>6174.0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>3413.0</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>1937.0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>6542.0</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>2980.0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>740.0</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>2303.0</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>2046.0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>1545.0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>3168.0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>3361.0</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>5507.0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>2232.0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>6239.0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>7266.0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>5801.0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>9676.0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>1498.0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>2122.0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>3960.0</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>5347.0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>2511.0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>6474.0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>5281.0</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>1632.0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>667.0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>5581.0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>8522.0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>1599.0</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>5378.0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>3775.0</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>6232.0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>1586.0</v>
-      </c>
       <c r="GE9" t="n">
-        <v>2783.0</v>
+        <v>3175.0</v>
       </c>
       <c r="GF9" t="n">
-        <v>8678.0</v>
+        <v>2789.0</v>
       </c>
       <c r="GG9" t="n">
-        <v>5003.0</v>
+        <v>8940.0</v>
       </c>
       <c r="GH9" t="n">
-        <v>8595.0</v>
+        <v>6784.0</v>
       </c>
       <c r="GI9" t="n">
-        <v>6756.0</v>
+        <v>6181.0</v>
       </c>
       <c r="GJ9" t="n">
-        <v>136.0</v>
+        <v>1100.0</v>
       </c>
       <c r="GK9" t="n">
-        <v>5527.0</v>
+        <v>3066.0</v>
       </c>
       <c r="GL9" t="n">
-        <v>8146.0</v>
+        <v>4484.0</v>
       </c>
       <c r="GM9" t="n">
-        <v>933.0</v>
+        <v>7827.0</v>
       </c>
       <c r="GN9" t="n">
-        <v>342.0</v>
+        <v>1810.0</v>
       </c>
       <c r="GO9" t="n">
-        <v>5435.0</v>
-      </c>
-      <c r="GP9" t="n">
-        <v>6393.0</v>
-      </c>
-      <c r="GQ9" t="n">
-        <v>2346.0</v>
-      </c>
-      <c r="GR9" t="n">
-        <v>5818.0</v>
-      </c>
-      <c r="GS9" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="GT9" t="n">
-        <v>3986.0</v>
-      </c>
-      <c r="GU9" t="n">
-        <v>7804.0</v>
-      </c>
-      <c r="GV9" t="n">
-        <v>5451.0</v>
-      </c>
-      <c r="GW9" t="n">
-        <v>9048.0</v>
-      </c>
-      <c r="GX9" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="GY9" t="n">
-        <v>6497.0</v>
-      </c>
-      <c r="GZ9" t="n">
-        <v>2261.0</v>
-      </c>
-      <c r="HA9" t="n">
-        <v>5834.0</v>
-      </c>
-      <c r="HB9" t="n">
-        <v>7030.0</v>
-      </c>
-      <c r="HC9" t="n">
-        <v>1981.0</v>
-      </c>
-      <c r="HD9" t="n">
-        <v>8555.0</v>
-      </c>
-      <c r="HE9" t="n">
-        <v>519.0</v>
-      </c>
-      <c r="HF9" t="n">
-        <v>354.0</v>
-      </c>
-      <c r="HG9" t="n">
-        <v>1095.0</v>
-      </c>
-      <c r="HH9" t="n">
-        <v>4852.0</v>
-      </c>
-      <c r="HI9" t="n">
-        <v>5974.0</v>
-      </c>
-      <c r="HJ9" t="n">
-        <v>9643.0</v>
-      </c>
-      <c r="HK9" t="n">
-        <v>5351.0</v>
-      </c>
-      <c r="HL9" t="n">
-        <v>3890.0</v>
-      </c>
-      <c r="HM9" t="n">
-        <v>2169.0</v>
-      </c>
-      <c r="HN9" t="n">
-        <v>9306.0</v>
-      </c>
-      <c r="HO9" t="n">
-        <v>3768.0</v>
-      </c>
-      <c r="HP9" t="n">
-        <v>9772.0</v>
-      </c>
-      <c r="HQ9" t="n">
-        <v>8121.0</v>
-      </c>
-      <c r="HR9" t="n">
-        <v>4781.0</v>
-      </c>
-      <c r="HS9" t="n">
-        <v>4767.0</v>
-      </c>
-      <c r="HT9" t="n">
-        <v>8910.0</v>
-      </c>
-      <c r="HU9" t="n">
-        <v>7490.0</v>
-      </c>
-      <c r="HV9" t="n">
-        <v>8907.0</v>
-      </c>
-      <c r="HW9" t="n">
-        <v>8748.0</v>
-      </c>
-      <c r="HX9" t="n">
-        <v>3783.0</v>
-      </c>
-      <c r="HY9" t="n">
-        <v>7821.0</v>
-      </c>
-      <c r="HZ9" t="n">
-        <v>948.0</v>
-      </c>
-      <c r="IA9" t="n">
-        <v>2284.0</v>
-      </c>
-      <c r="IB9" t="n">
-        <v>2745.0</v>
-      </c>
-      <c r="IC9" t="n">
-        <v>9117.0</v>
-      </c>
-      <c r="ID9" t="n">
-        <v>4895.0</v>
-      </c>
-      <c r="IE9" t="n">
-        <v>9467.0</v>
-      </c>
-      <c r="IF9" t="n">
-        <v>9109.0</v>
-      </c>
-      <c r="IG9" t="n">
-        <v>3466.0</v>
-      </c>
-      <c r="IH9" t="n">
-        <v>1353.0</v>
-      </c>
-      <c r="II9" t="n">
-        <v>5897.0</v>
-      </c>
-      <c r="IJ9" t="n">
-        <v>570.0</v>
+        <v>2819.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -4377,147 +3678,6 @@
       </c>
       <c r="GO11" t="s">
         <v>202</v>
-      </c>
-      <c r="GP11" t="s">
-        <v>203</v>
-      </c>
-      <c r="GQ11" t="s">
-        <v>204</v>
-      </c>
-      <c r="GR11" t="s">
-        <v>205</v>
-      </c>
-      <c r="GS11" t="s">
-        <v>206</v>
-      </c>
-      <c r="GT11" t="s">
-        <v>207</v>
-      </c>
-      <c r="GU11" t="s">
-        <v>208</v>
-      </c>
-      <c r="GV11" t="s">
-        <v>209</v>
-      </c>
-      <c r="GW11" t="s">
-        <v>210</v>
-      </c>
-      <c r="GX11" t="s">
-        <v>211</v>
-      </c>
-      <c r="GY11" t="s">
-        <v>212</v>
-      </c>
-      <c r="GZ11" t="s">
-        <v>213</v>
-      </c>
-      <c r="HA11" t="s">
-        <v>214</v>
-      </c>
-      <c r="HB11" t="s">
-        <v>215</v>
-      </c>
-      <c r="HC11" t="s">
-        <v>216</v>
-      </c>
-      <c r="HD11" t="s">
-        <v>217</v>
-      </c>
-      <c r="HE11" t="s">
-        <v>218</v>
-      </c>
-      <c r="HF11" t="s">
-        <v>219</v>
-      </c>
-      <c r="HG11" t="s">
-        <v>220</v>
-      </c>
-      <c r="HH11" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI11" t="s">
-        <v>222</v>
-      </c>
-      <c r="HJ11" t="s">
-        <v>223</v>
-      </c>
-      <c r="HK11" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL11" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM11" t="s">
-        <v>226</v>
-      </c>
-      <c r="HN11" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO11" t="s">
-        <v>228</v>
-      </c>
-      <c r="HP11" t="s">
-        <v>229</v>
-      </c>
-      <c r="HQ11" t="s">
-        <v>230</v>
-      </c>
-      <c r="HR11" t="s">
-        <v>231</v>
-      </c>
-      <c r="HS11" t="s">
-        <v>232</v>
-      </c>
-      <c r="HT11" t="s">
-        <v>233</v>
-      </c>
-      <c r="HU11" t="s">
-        <v>234</v>
-      </c>
-      <c r="HV11" t="s">
-        <v>235</v>
-      </c>
-      <c r="HW11" t="s">
-        <v>236</v>
-      </c>
-      <c r="HX11" t="s">
-        <v>237</v>
-      </c>
-      <c r="HY11" t="s">
-        <v>238</v>
-      </c>
-      <c r="HZ11" t="s">
-        <v>239</v>
-      </c>
-      <c r="IA11" t="s">
-        <v>240</v>
-      </c>
-      <c r="IB11" t="s">
-        <v>241</v>
-      </c>
-      <c r="IC11" t="s">
-        <v>242</v>
-      </c>
-      <c r="ID11" t="s">
-        <v>243</v>
-      </c>
-      <c r="IE11" t="s">
-        <v>244</v>
-      </c>
-      <c r="IF11" t="s">
-        <v>245</v>
-      </c>
-      <c r="IG11" t="s">
-        <v>246</v>
-      </c>
-      <c r="IH11" t="s">
-        <v>247</v>
-      </c>
-      <c r="II11" t="s">
-        <v>248</v>
-      </c>
-      <c r="IJ11" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -4525,733 +3685,2964 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>3800.0</v>
+        <v>7239.0</v>
       </c>
       <c r="C12" t="n">
-        <v>7769.0</v>
+        <v>6934.0</v>
       </c>
       <c r="D12" t="n">
-        <v>6032.0</v>
+        <v>6900.0</v>
       </c>
       <c r="E12" t="n">
-        <v>5660.0</v>
+        <v>4380.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6479.0</v>
+        <v>3734.0</v>
       </c>
       <c r="G12" t="n">
-        <v>5085.0</v>
+        <v>260.0</v>
       </c>
       <c r="H12" t="n">
+        <v>6961.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9825.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8121.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3892.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8061.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2371.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8712.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7803.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7515.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2498.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3931.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4560.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8159.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7535.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4269.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5466.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8780.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4107.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2778.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1330.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6280.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9509.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4396.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2195.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7228.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3485.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8108.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8515.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>6720.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3281.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>8980.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5116.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>8115.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>5167.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2092.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>9228.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8213.0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4109.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7392.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>8871.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>6419.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>6157.0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5555.0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>8213.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3152.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2203.0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3361.0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4033.0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>9041.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>7984.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>9759.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2097.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2965.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>7796.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>9596.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>4080.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>2947.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>9419.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>942.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1261.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>3374.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>9159.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>2596.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>8434.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>4476.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>7731.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>4132.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>2045.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>5295.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>2933.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>4420.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>6223.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>3458.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>8502.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>3972.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>4133.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>9514.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>7218.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>9221.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>3352.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>7669.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>4332.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>6263.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>8876.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>9044.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>1132.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>5855.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>9024.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>2148.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>3807.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>2792.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>1112.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>5934.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>3349.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>8116.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>5394.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>5233.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>1205.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>1718.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>9161.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>4444.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>4613.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>8543.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>5335.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>8198.0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>8048.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>2082.0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>6030.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>7435.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>6970.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>2928.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>3975.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>2109.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>9071.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>5414.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>5116.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>4116.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>5370.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>2504.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>3502.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>3746.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>5994.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>9151.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>4775.0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>3669.0</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>8018.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>6565.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>606.0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>1055.0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>1383.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>963.0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>3522.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>4113.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>2090.0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>9891.0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>3415.0</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>8048.0</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>9973.0</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>6459.0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>6291.0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>3139.0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>9799.0</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>1336.0</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>4552.0</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>3310.0</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>941.0</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>5306.0</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>1385.0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>8907.0</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>4016.0</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>9436.0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>7040.0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>6466.0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>2135.0</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>1126.0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>1133.0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>5857.0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>9543.0</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>9961.0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>8275.0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>4775.0</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>4836.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>96</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>111</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>115</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>116</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>118</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>119</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>121</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>124</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>128</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>132</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>135</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>138</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>146</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>147</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>151</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>153</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>154</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>155</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>156</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>157</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>158</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>159</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>160</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>161</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>162</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>164</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>165</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>166</v>
+      </c>
+      <c r="FF14" t="s">
+        <v>167</v>
+      </c>
+      <c r="FG14" t="s">
+        <v>168</v>
+      </c>
+      <c r="FH14" t="s">
+        <v>169</v>
+      </c>
+      <c r="FI14" t="s">
+        <v>170</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>171</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>172</v>
+      </c>
+      <c r="FL14" t="s">
+        <v>173</v>
+      </c>
+      <c r="FM14" t="s">
+        <v>174</v>
+      </c>
+      <c r="FN14" t="s">
+        <v>175</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>176</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>177</v>
+      </c>
+      <c r="FQ14" t="s">
+        <v>178</v>
+      </c>
+      <c r="FR14" t="s">
+        <v>179</v>
+      </c>
+      <c r="FS14" t="s">
+        <v>180</v>
+      </c>
+      <c r="FT14" t="s">
+        <v>181</v>
+      </c>
+      <c r="FU14" t="s">
+        <v>182</v>
+      </c>
+      <c r="FV14" t="s">
+        <v>183</v>
+      </c>
+      <c r="FW14" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX14" t="s">
+        <v>185</v>
+      </c>
+      <c r="FY14" t="s">
+        <v>186</v>
+      </c>
+      <c r="FZ14" t="s">
+        <v>187</v>
+      </c>
+      <c r="GA14" t="s">
+        <v>188</v>
+      </c>
+      <c r="GB14" t="s">
+        <v>189</v>
+      </c>
+      <c r="GC14" t="s">
+        <v>190</v>
+      </c>
+      <c r="GD14" t="s">
+        <v>191</v>
+      </c>
+      <c r="GE14" t="s">
+        <v>192</v>
+      </c>
+      <c r="GF14" t="s">
+        <v>193</v>
+      </c>
+      <c r="GG14" t="s">
+        <v>194</v>
+      </c>
+      <c r="GH14" t="s">
+        <v>195</v>
+      </c>
+      <c r="GI14" t="s">
+        <v>196</v>
+      </c>
+      <c r="GJ14" t="s">
+        <v>197</v>
+      </c>
+      <c r="GK14" t="s">
+        <v>198</v>
+      </c>
+      <c r="GL14" t="s">
+        <v>199</v>
+      </c>
+      <c r="GM14" t="s">
+        <v>200</v>
+      </c>
+      <c r="GN14" t="s">
+        <v>201</v>
+      </c>
+      <c r="GO14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8528.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2464.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2965.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8543.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5859.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1205.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8509.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3529.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9471.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8511.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4840.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5205.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3870.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3152.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1642.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5672.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5175.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3819.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2392.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4306.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9357.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1205.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6115.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7933.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3246.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1679.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2307.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3224.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>5974.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9458.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2092.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8408.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>5563.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>5684.0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>5404.0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2723.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4635.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>5496.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6822.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>7683.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1093.0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4812.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9613.0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>7726.0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>8427.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>7861.0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>8584.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>4433.0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>8106.0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>2993.0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2076.0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2786.0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>5782.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>6455.0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>9296.0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2208.0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>9404.0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>7673.0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>9206.0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>1239.0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>7945.0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>5601.0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>7649.0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>598.0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>2869.0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>3098.0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>5742.0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>8571.0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>9222.0</v>
+      </c>
+      <c r="CB15" t="n">
         <v>5176.0</v>
       </c>
-      <c r="I12" t="n">
-        <v>7364.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9390.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4962.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3259.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5315.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4497.0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="CC15" t="n">
+        <v>2188.0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>6376.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>8749.0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>8940.0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>6503.0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>5101.0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>3038.0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>9182.0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>3903.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>9174.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>6735.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>7707.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>3302.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>8757.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>6013.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>2943.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>6552.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>6237.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>4573.0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>655.0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>7243.0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>3799.0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>7348.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>6662.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>1688.0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>7045.0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>8605.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>5932.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>5417.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>7967.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>5689.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>5209.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>9927.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>9662.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>1691.0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>3543.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>8694.0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>8160.0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>5564.0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>1605.0</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>3796.0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>6134.0</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>6036.0</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>7559.0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>1551.0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>5906.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>4723.0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>7193.0</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>2549.0</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>8015.0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>2813.0</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>8075.0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>9815.0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>2856.0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>5641.0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>2388.0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>3852.0</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>7528.0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>951.0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>7512.0</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>1035.0</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>5294.0</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>6923.0</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>662.0</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>8349.0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>6863.0</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>3532.0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>4804.0</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>7239.0</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>2298.0</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>5116.0</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>9533.0</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>3938.0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>5507.0</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>6510.0</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>7795.0</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>2058.0</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>4630.0</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>4395.0</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>3061.0</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>6068.0</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>5668.0</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>1624.0</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>3893.0</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>2729.0</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>8352.0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>3648.0</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>9108.0</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>9675.0</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>1615.0</v>
+      </c>
+      <c r="GJ15" t="n">
+        <v>3214.0</v>
+      </c>
+      <c r="GK15" t="n">
+        <v>7687.0</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>3652.0</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>8580.0</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>4258.0</v>
+      </c>
+      <c r="GO15" t="n">
+        <v>638.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>96</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>111</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>115</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>116</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>118</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>119</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>121</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>123</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>124</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>126</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>128</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>132</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>135</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>138</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>146</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>147</v>
+      </c>
+      <c r="EM17" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN17" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>151</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>153</v>
+      </c>
+      <c r="ES17" t="s">
+        <v>154</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>155</v>
+      </c>
+      <c r="EU17" t="s">
+        <v>156</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>157</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>158</v>
+      </c>
+      <c r="EX17" t="s">
+        <v>159</v>
+      </c>
+      <c r="EY17" t="s">
+        <v>160</v>
+      </c>
+      <c r="EZ17" t="s">
+        <v>161</v>
+      </c>
+      <c r="FA17" t="s">
+        <v>162</v>
+      </c>
+      <c r="FB17" t="s">
+        <v>163</v>
+      </c>
+      <c r="FC17" t="s">
+        <v>164</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>165</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>166</v>
+      </c>
+      <c r="FF17" t="s">
+        <v>167</v>
+      </c>
+      <c r="FG17" t="s">
+        <v>168</v>
+      </c>
+      <c r="FH17" t="s">
+        <v>169</v>
+      </c>
+      <c r="FI17" t="s">
+        <v>170</v>
+      </c>
+      <c r="FJ17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FK17" t="s">
+        <v>172</v>
+      </c>
+      <c r="FL17" t="s">
+        <v>173</v>
+      </c>
+      <c r="FM17" t="s">
+        <v>174</v>
+      </c>
+      <c r="FN17" t="s">
+        <v>175</v>
+      </c>
+      <c r="FO17" t="s">
+        <v>176</v>
+      </c>
+      <c r="FP17" t="s">
+        <v>177</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>178</v>
+      </c>
+      <c r="FR17" t="s">
+        <v>179</v>
+      </c>
+      <c r="FS17" t="s">
+        <v>180</v>
+      </c>
+      <c r="FT17" t="s">
+        <v>181</v>
+      </c>
+      <c r="FU17" t="s">
+        <v>182</v>
+      </c>
+      <c r="FV17" t="s">
+        <v>183</v>
+      </c>
+      <c r="FW17" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX17" t="s">
+        <v>185</v>
+      </c>
+      <c r="FY17" t="s">
+        <v>186</v>
+      </c>
+      <c r="FZ17" t="s">
+        <v>187</v>
+      </c>
+      <c r="GA17" t="s">
+        <v>188</v>
+      </c>
+      <c r="GB17" t="s">
+        <v>189</v>
+      </c>
+      <c r="GC17" t="s">
+        <v>190</v>
+      </c>
+      <c r="GD17" t="s">
+        <v>191</v>
+      </c>
+      <c r="GE17" t="s">
+        <v>192</v>
+      </c>
+      <c r="GF17" t="s">
+        <v>193</v>
+      </c>
+      <c r="GG17" t="s">
+        <v>194</v>
+      </c>
+      <c r="GH17" t="s">
+        <v>195</v>
+      </c>
+      <c r="GI17" t="s">
+        <v>196</v>
+      </c>
+      <c r="GJ17" t="s">
+        <v>197</v>
+      </c>
+      <c r="GK17" t="s">
+        <v>198</v>
+      </c>
+      <c r="GL17" t="s">
+        <v>199</v>
+      </c>
+      <c r="GM17" t="s">
+        <v>200</v>
+      </c>
+      <c r="GN17" t="s">
+        <v>201</v>
+      </c>
+      <c r="GO17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3445.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8435.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6513.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5221.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9152.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6284.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7783.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3181.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4942.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8414.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4522.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8896.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3979.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2364.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4147.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7891.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3369.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>723.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4207.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3484.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4948.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7219.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3752.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8081.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2580.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7728.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5900.0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>6677.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9967.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>680.0</v>
       </c>
-      <c r="P12" t="n">
-        <v>8735.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7022.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1398.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6510.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7424.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>5492.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>6312.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4919.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2928.0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5311.0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9158.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>8317.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2382.0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1729.0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9891.0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2210.0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>3698.0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>4133.0</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AJ18" t="n">
         <v>9624.0</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>8253.0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1517.0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>7232.0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2419.0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5991.0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5145.0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>5407.0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>3776.0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>8293.0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>4085.0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2366.0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7475.0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>7647.0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4963.0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>9893.0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>3893.0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>2153.0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>3392.0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>1294.0</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>9627.0</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>7183.0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>3367.0</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>7311.0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>7545.0</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>6170.0</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>4032.0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>5132.0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>6696.0</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>7385.0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>2531.0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>2461.0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>7035.0</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>3859.0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>2290.0</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>272.0</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>2158.0</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>9114.0</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>4532.0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>9833.0</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>4386.0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>2269.0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>7069.0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>1835.0</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>438.0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>2256.0</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>8516.0</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>8105.0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>2644.0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>2370.0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>7919.0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>9210.0</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>241.0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>3209.0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>9522.0</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>4547.0</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>7580.0</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>4130.0</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>9890.0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>4968.0</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>1291.0</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>843.0</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>9923.0</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>1891.0</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>6418.0</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>9451.0</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>7444.0</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>943.0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>2309.0</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>5331.0</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>6984.0</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>2693.0</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>2669.0</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>8627.0</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>2142.0</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>7760.0</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>603.0</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>6771.0</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>2489.0</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>8725.0</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>8678.0</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>8488.0</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>1337.0</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>6608.0</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>6109.0</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>3014.0</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>2933.0</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>5454.0</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>9998.0</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>2886.0</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>7604.0</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>4544.0</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>5237.0</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>8608.0</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>1244.0</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>4117.0</v>
-      </c>
-      <c r="EA12" t="n">
+      <c r="AK18" t="n">
+        <v>3838.0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2403.0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2684.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4350.0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4516.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3210.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2414.0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3997.0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>7282.0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4897.0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>4833.0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>8365.0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>8579.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>7378.0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>5886.0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>7894.0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>3961.0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2590.0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>6277.0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>9015.0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>4022.0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>6688.0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3327.0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>6765.0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>4191.0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>5878.0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>4379.0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>3346.0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>3286.0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>749.0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>3955.0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>8217.0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3994.0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>3701.0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2493.0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>3887.0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>6970.0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>4492.0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>8864.0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>2428.0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>4586.0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>9026.0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>7783.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>3765.0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>1327.0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>3230.0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>3407.0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>3575.0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>9442.0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>3345.0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>9027.0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>3418.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>2383.0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>6445.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>7213.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>8599.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>2974.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>3338.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>4082.0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>6238.0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>4446.0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>2218.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>1206.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>4516.0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>3610.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>7300.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>5546.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>6189.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>8211.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>6775.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>6824.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>4864.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>6499.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>1158.0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>9819.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>2528.0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>4162.0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>6929.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>8022.0</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>2707.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>5676.0</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>6856.0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>9382.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>4020.0</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>6564.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>3233.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>7638.0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>4871.0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>6249.0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>9112.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>4566.0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>5870.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>8012.0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>2226.0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>2757.0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>5468.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>3197.0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>5692.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>6448.0</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>2413.0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>7721.0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>2440.0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>4927.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>9317.0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="FB18" t="n">
         <v>8171.0</v>
       </c>
-      <c r="EB12" t="n">
-        <v>8705.0</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>1127.0</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>7117.0</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>2372.0</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>9282.0</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>3518.0</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>6463.0</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>1038.0</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>3038.0</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>9773.0</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>4599.0</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>9385.0</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>8869.0</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>6736.0</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>9676.0</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>2168.0</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>9716.0</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>4076.0</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>617.0</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>6005.0</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>8090.0</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>5952.0</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>1532.0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>3505.0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>5833.0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>6866.0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>4470.0</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>6402.0</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>7122.0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>1914.0</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>8329.0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>7849.0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>1445.0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>9759.0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>923.0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>9832.0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>6346.0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>2608.0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>615.0</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>258.0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>8104.0</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>1240.0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>3765.0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>5697.0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>2198.0</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>4686.0</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>4271.0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>9976.0</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>4385.0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>3567.0</v>
-      </c>
-      <c r="FZ12" t="n">
+      <c r="FC18" t="n">
+        <v>8222.0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>7270.0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>4769.0</v>
+      </c>
+      <c r="FF18" t="n">
         <v>1925.0</v>
       </c>
-      <c r="GA12" t="n">
-        <v>5872.0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>7548.0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>3277.0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>6985.0</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>6997.0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>9080.0</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>8220.0</v>
-      </c>
-      <c r="GH12" t="n">
-        <v>9426.0</v>
-      </c>
-      <c r="GI12" t="n">
-        <v>9649.0</v>
-      </c>
-      <c r="GJ12" t="n">
-        <v>8496.0</v>
-      </c>
-      <c r="GK12" t="n">
-        <v>1129.0</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>2634.0</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>9855.0</v>
-      </c>
-      <c r="GN12" t="n">
-        <v>5215.0</v>
-      </c>
-      <c r="GO12" t="n">
-        <v>2118.0</v>
-      </c>
-      <c r="GP12" t="n">
-        <v>2977.0</v>
-      </c>
-      <c r="GQ12" t="n">
-        <v>9153.0</v>
-      </c>
-      <c r="GR12" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="GS12" t="n">
-        <v>589.0</v>
-      </c>
-      <c r="GT12" t="n">
-        <v>8653.0</v>
-      </c>
-      <c r="GU12" t="n">
-        <v>3745.0</v>
-      </c>
-      <c r="GV12" t="n">
-        <v>555.0</v>
-      </c>
-      <c r="GW12" t="n">
-        <v>9344.0</v>
-      </c>
-      <c r="GX12" t="n">
-        <v>3481.0</v>
-      </c>
-      <c r="GY12" t="n">
-        <v>5572.0</v>
-      </c>
-      <c r="GZ12" t="n">
-        <v>1395.0</v>
-      </c>
-      <c r="HA12" t="n">
-        <v>4370.0</v>
-      </c>
-      <c r="HB12" t="n">
-        <v>3889.0</v>
-      </c>
-      <c r="HC12" t="n">
-        <v>588.0</v>
-      </c>
-      <c r="HD12" t="n">
-        <v>2769.0</v>
-      </c>
-      <c r="HE12" t="n">
-        <v>5584.0</v>
-      </c>
-      <c r="HF12" t="n">
-        <v>259.0</v>
-      </c>
-      <c r="HG12" t="n">
-        <v>9069.0</v>
-      </c>
-      <c r="HH12" t="n">
-        <v>8751.0</v>
-      </c>
-      <c r="HI12" t="n">
-        <v>3602.0</v>
-      </c>
-      <c r="HJ12" t="n">
-        <v>7005.0</v>
-      </c>
-      <c r="HK12" t="n">
-        <v>5117.0</v>
-      </c>
-      <c r="HL12" t="n">
-        <v>9903.0</v>
-      </c>
-      <c r="HM12" t="n">
-        <v>5026.0</v>
-      </c>
-      <c r="HN12" t="n">
-        <v>9268.0</v>
-      </c>
-      <c r="HO12" t="n">
-        <v>7710.0</v>
-      </c>
-      <c r="HP12" t="n">
-        <v>6766.0</v>
-      </c>
-      <c r="HQ12" t="n">
-        <v>4132.0</v>
-      </c>
-      <c r="HR12" t="n">
-        <v>7970.0</v>
-      </c>
-      <c r="HS12" t="n">
-        <v>3614.0</v>
-      </c>
-      <c r="HT12" t="n">
-        <v>9350.0</v>
-      </c>
-      <c r="HU12" t="n">
-        <v>1933.0</v>
-      </c>
-      <c r="HV12" t="n">
-        <v>9113.0</v>
-      </c>
-      <c r="HW12" t="n">
-        <v>3273.0</v>
-      </c>
-      <c r="HX12" t="n">
-        <v>3820.0</v>
-      </c>
-      <c r="HY12" t="n">
-        <v>4553.0</v>
-      </c>
-      <c r="HZ12" t="n">
-        <v>7661.0</v>
-      </c>
-      <c r="IA12" t="n">
-        <v>4380.0</v>
-      </c>
-      <c r="IB12" t="n">
-        <v>949.0</v>
-      </c>
-      <c r="IC12" t="n">
-        <v>1623.0</v>
-      </c>
-      <c r="ID12" t="n">
-        <v>1135.0</v>
-      </c>
-      <c r="IE12" t="n">
-        <v>4280.0</v>
-      </c>
-      <c r="IF12" t="n">
-        <v>9587.0</v>
-      </c>
-      <c r="IG12" t="n">
-        <v>1941.0</v>
-      </c>
-      <c r="IH12" t="n">
-        <v>3131.0</v>
-      </c>
-      <c r="II12" t="n">
-        <v>1541.0</v>
-      </c>
-      <c r="IJ12" t="n">
-        <v>2406.0</v>
+      <c r="FG18" t="n">
+        <v>2164.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>3969.0</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>2869.0</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>3571.0</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>9315.0</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="FM18" t="n">
+        <v>5375.0</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>8291.0</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>6996.0</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>6754.0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>4875.0</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>5607.0</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>1268.0</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>7690.0</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>2804.0</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>8571.0</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>7060.0</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>9320.0</v>
+      </c>
+      <c r="GC18" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>5841.0</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>6517.0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>6159.0</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>5953.0</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>8570.0</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>2275.0</v>
+      </c>
+      <c r="GK18" t="n">
+        <v>6925.0</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>9539.0</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>6291.0</v>
+      </c>
+      <c r="GO18" t="n">
+        <v>1710.0</v>
       </c>
     </row>
   </sheetData>
